--- a/parameter_search_results/random_search_randomforest.xlsx
+++ b/parameter_search_results/random_search_randomforest.xlsx
@@ -527,16 +527,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.6909183661142985</v>
+        <v>0.7316752274831136</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04130113217471584</v>
+        <v>0.04971768541463717</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008694251378377279</v>
+        <v>0.0105903148651123</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0004342413489644348</v>
+        <v>0.002041054180811128</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -565,40 +565,40 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(10), 'max_features': 'sqrt', 'min_samples_leaf': 7, 'min_samples_split': 12, 'n_estimators': 137}</t>
+          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(16), 'max_features': 'sqrt', 'min_samples_leaf': 7, 'min_samples_split': 12, 'n_estimators': 137}</t>
         </is>
       </c>
       <c r="M2" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.5825</v>
+      </c>
+      <c r="P2" t="n">
         <v>0.5625</v>
       </c>
-      <c r="N2" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.5925</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.5716666666666667</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0.01476670428889112</v>
+        <v>0.01428869016623519</v>
       </c>
       <c r="R2" t="n">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>15.67099006970724</v>
+        <v>8.86729884147644</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6593687985647874</v>
+        <v>0.4210653466049973</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0334932804107666</v>
+        <v>0.02265866597493489</v>
       </c>
       <c r="D3" t="n">
-        <v>0.004739537671936809</v>
+        <v>0.00185014325244457</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
@@ -623,40 +623,40 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(14), 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 13, 'n_estimators': 463}</t>
+          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(4), 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 13, 'n_estimators': 463}</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.5825</v>
+        <v>0.5625</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5825</v>
+        <v>0.5875</v>
       </c>
       <c r="O3" t="n">
-        <v>0.58</v>
+        <v>0.595</v>
       </c>
       <c r="P3" t="n">
         <v>0.5816666666666667</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.001178511301977606</v>
+        <v>0.01389444333377755</v>
       </c>
       <c r="R3" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.138834079106649</v>
+        <v>2.716914653778076</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05129608991630675</v>
+        <v>0.1020272774403399</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02633206049601237</v>
+        <v>0.02283938725789388</v>
       </c>
       <c r="D4" t="n">
-        <v>0.004216193691442411</v>
+        <v>0.0006338550127644472</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -685,40 +685,40 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(6), 'max_features': 'sqrt', 'min_samples_leaf': 12, 'min_samples_split': 13, 'n_estimators': 394}</t>
+          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(18), 'max_features': 'sqrt', 'min_samples_leaf': 12, 'min_samples_split': 13, 'n_estimators': 394}</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>0.5575</v>
+        <v>0.5675</v>
       </c>
       <c r="N4" t="n">
-        <v>0.555</v>
+        <v>0.5675</v>
       </c>
       <c r="O4" t="n">
-        <v>0.59</v>
+        <v>0.5825</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5675</v>
+        <v>0.5725</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01594260539142413</v>
+        <v>0.007071067811865482</v>
       </c>
       <c r="R4" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.892595211664836</v>
+        <v>5.51181157430013</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2003228416495742</v>
+        <v>0.4036849390182856</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01914191246032715</v>
+        <v>0.02710787455240886</v>
       </c>
       <c r="D5" t="n">
-        <v>0.004272294311772466</v>
+        <v>0.001708222032007325</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
@@ -743,40 +743,40 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'gini', 'max_depth': np.int64(10), 'max_features': None, 'min_samples_leaf': 10, 'min_samples_split': 17, 'n_estimators': 320}</t>
+          <t>{'bootstrap': True, 'criterion': 'gini', 'max_depth': np.int64(16), 'max_features': None, 'min_samples_leaf': 10, 'min_samples_split': 17, 'n_estimators': 320}</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>0.575</v>
+        <v>0.57</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6025</v>
+        <v>0.5825</v>
       </c>
       <c r="O5" t="n">
         <v>0.5925</v>
       </c>
       <c r="P5" t="n">
-        <v>0.59</v>
+        <v>0.5816666666666667</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01136515141415491</v>
+        <v>0.009204467514322748</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>16.0005308787028</v>
+        <v>20.12602909406026</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2043315963388482</v>
+        <v>0.6589214128230789</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01930546760559082</v>
+        <v>0.0238797664642334</v>
       </c>
       <c r="D6" t="n">
-        <v>0.004970027451762234</v>
+        <v>0.001740557785171424</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
@@ -801,40 +801,40 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(8), 'max_features': None, 'min_samples_leaf': 3, 'min_samples_split': 6, 'n_estimators': 356}</t>
+          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(11), 'max_features': None, 'min_samples_leaf': 3, 'min_samples_split': 6, 'n_estimators': 356}</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>0.4775</v>
+        <v>0.485</v>
       </c>
       <c r="N6" t="n">
-        <v>0.5</v>
+        <v>0.465</v>
       </c>
       <c r="O6" t="n">
-        <v>0.51</v>
+        <v>0.4925</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4958333333333333</v>
+        <v>0.4808333333333333</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01359125535858342</v>
+        <v>0.01160699023098675</v>
       </c>
       <c r="R6" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.869654258092244</v>
+        <v>1.929764906565348</v>
       </c>
       <c r="B7" t="n">
-        <v>0.09297340915895745</v>
+        <v>0.1263164039418131</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01065826416015625</v>
+        <v>0.01372734705607096</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001959791158310953</v>
+        <v>0.006350147626071643</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
@@ -859,40 +859,40 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'gini', 'max_depth': np.int64(15), 'max_features': None, 'min_samples_leaf': 18, 'min_samples_split': 5, 'n_estimators': 138}</t>
+          <t>{'bootstrap': True, 'criterion': 'gini', 'max_depth': np.int64(16), 'max_features': None, 'min_samples_leaf': 18, 'min_samples_split': 5, 'n_estimators': 138}</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>0.5825</v>
+        <v>0.585</v>
       </c>
       <c r="N7" t="n">
-        <v>0.585</v>
+        <v>0.5875</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6025</v>
+        <v>0.595</v>
       </c>
       <c r="P7" t="n">
-        <v>0.59</v>
+        <v>0.5891666666666666</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.008897565210026111</v>
+        <v>0.004249182927993984</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.944292783737183</v>
+        <v>2.254830757776896</v>
       </c>
       <c r="B8" t="n">
-        <v>0.04098387277189498</v>
+        <v>0.169835649207673</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02138074239095052</v>
+        <v>0.03374195098876953</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0006028217627901758</v>
+        <v>0.0069529813755127</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -903,7 +903,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -921,40 +921,40 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(9), 'max_features': 'log2', 'min_samples_leaf': 9, 'min_samples_split': 3, 'n_estimators': 389}</t>
+          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(16), 'max_features': 'log2', 'min_samples_leaf': 9, 'min_samples_split': 3, 'n_estimators': 389}</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>0.55</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5575</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5825</v>
+        <v>0.59</v>
       </c>
       <c r="P8" t="n">
-        <v>0.5633333333333334</v>
+        <v>0.5666666666666668</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01389444333377755</v>
+        <v>0.01699673171197591</v>
       </c>
       <c r="R8" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.3938179810841878</v>
+        <v>0.4198066393534343</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01639213389191083</v>
+        <v>0.02575251466959191</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006027460098266602</v>
+        <v>0.008855581283569336</v>
       </c>
       <c r="D9" t="n">
-        <v>6.738886130810141e-05</v>
+        <v>0.001512697864373008</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -983,40 +983,40 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'gini', 'max_depth': np.int64(17), 'max_features': 'sqrt', 'min_samples_leaf': 8, 'min_samples_split': 16, 'n_estimators': 84}</t>
+          <t>{'bootstrap': False, 'criterion': 'gini', 'max_depth': np.int64(14), 'max_features': 'sqrt', 'min_samples_leaf': 8, 'min_samples_split': 16, 'n_estimators': 84}</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>0.5675</v>
+        <v>0.545</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5775</v>
+        <v>0.5825</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5875</v>
+        <v>0.605</v>
       </c>
       <c r="P9" t="n">
         <v>0.5775</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.008164965809277268</v>
+        <v>0.02474873734152914</v>
       </c>
       <c r="R9" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1765234470367432</v>
+        <v>0.2183303038279215</v>
       </c>
       <c r="B10" t="n">
-        <v>0.009074293739846792</v>
+        <v>0.01723781305806135</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004254817962646484</v>
+        <v>0.006925185521443685</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0001237040949390133</v>
+        <v>0.0002884967485112118</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1045,40 +1045,40 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'gini', 'max_depth': np.int64(18), 'max_features': 'log2', 'min_samples_leaf': 8, 'min_samples_split': 5, 'n_estimators': 51}</t>
+          <t>{'bootstrap': False, 'criterion': 'gini', 'max_depth': np.int64(14), 'max_features': 'log2', 'min_samples_leaf': 8, 'min_samples_split': 5, 'n_estimators': 51}</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>0.55</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5675</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5775</v>
+        <v>0.5875</v>
       </c>
       <c r="P10" t="n">
-        <v>0.5625</v>
+        <v>0.5683333333333334</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01136515141415487</v>
+        <v>0.01532064692570852</v>
       </c>
       <c r="R10" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.840023914972941</v>
+        <v>1.730796575546265</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0145749766484006</v>
+        <v>0.07750995479359345</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01226210594177246</v>
+        <v>0.0204163392384847</v>
       </c>
       <c r="D11" t="n">
-        <v>0.000787387166694915</v>
+        <v>0.003629326198886757</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -1089,7 +1089,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1107,40 +1107,40 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(4), 'max_features': 'log2', 'min_samples_leaf': 4, 'min_samples_split': 19, 'n_estimators': 267}</t>
+          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(12), 'max_features': 'log2', 'min_samples_leaf': 4, 'min_samples_split': 19, 'n_estimators': 267}</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>0.545</v>
+        <v>0.5625</v>
       </c>
       <c r="N11" t="n">
-        <v>0.54</v>
+        <v>0.5475</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5475</v>
+        <v>0.58</v>
       </c>
       <c r="P11" t="n">
-        <v>0.5441666666666666</v>
+        <v>0.5633333333333334</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.003118047822311601</v>
+        <v>0.01328114787542435</v>
       </c>
       <c r="R11" t="n">
-        <v>82</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.327692031860352</v>
+        <v>2.510210355122884</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0208464071195335</v>
+        <v>0.1385598120904044</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02468101183573405</v>
+        <v>0.02603006362915039</v>
       </c>
       <c r="D12" t="n">
-        <v>0.004892247702493138</v>
+        <v>0.004707889358412701</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1169,40 +1169,40 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(9), 'max_features': 'log2', 'min_samples_leaf': 4, 'min_samples_split': 15, 'n_estimators': 400}</t>
+          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(10), 'max_features': 'log2', 'min_samples_leaf': 4, 'min_samples_split': 15, 'n_estimators': 400}</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>0.5525</v>
+        <v>0.555</v>
       </c>
       <c r="N12" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="O12" t="n">
-        <v>0.595</v>
+        <v>0.585</v>
       </c>
       <c r="P12" t="n">
-        <v>0.5691666666666667</v>
+        <v>0.5683333333333334</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01852175897574404</v>
+        <v>0.01247219128924644</v>
       </c>
       <c r="R12" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.022501071294149</v>
+        <v>0.7058208783467611</v>
       </c>
       <c r="B13" t="n">
-        <v>0.02618747189714852</v>
+        <v>0.06052521311787298</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01913539568583171</v>
+        <v>0.01594845453898112</v>
       </c>
       <c r="D13" t="n">
-        <v>0.003602481600094365</v>
+        <v>0.002631582961224233</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1231,40 +1231,40 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'gini', 'max_depth': np.int64(14), 'max_features': 'log2', 'min_samples_leaf': 8, 'min_samples_split': 17, 'n_estimators': 286}</t>
+          <t>{'bootstrap': False, 'criterion': 'gini', 'max_depth': np.int64(4), 'max_features': 'log2', 'min_samples_leaf': 8, 'min_samples_split': 17, 'n_estimators': 286}</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>0.5525</v>
+        <v>0.5475</v>
       </c>
       <c r="N13" t="n">
-        <v>0.5575</v>
+        <v>0.5475</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5925</v>
+        <v>0.555</v>
       </c>
       <c r="P13" t="n">
-        <v>0.5675</v>
+        <v>0.5499999999999999</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0177951304200522</v>
+        <v>0.003535533905932767</v>
       </c>
       <c r="R13" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.5677427450815836</v>
+        <v>0.7187290191650391</v>
       </c>
       <c r="B14" t="n">
-        <v>0.04976489543157808</v>
+        <v>0.03831474103948335</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01285441716512044</v>
+        <v>0.0139915943145752</v>
       </c>
       <c r="D14" t="n">
-        <v>0.003035744270270421</v>
+        <v>0.001504448980104782</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1293,40 +1293,40 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'gini', 'max_depth': np.int64(6), 'max_features': 'log2', 'min_samples_leaf': 13, 'min_samples_split': 10, 'n_estimators': 206}</t>
+          <t>{'bootstrap': False, 'criterion': 'gini', 'max_depth': np.int64(18), 'max_features': 'log2', 'min_samples_leaf': 13, 'min_samples_split': 10, 'n_estimators': 206}</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>0.5575</v>
+        <v>0.55</v>
       </c>
       <c r="N14" t="n">
-        <v>0.5475</v>
+        <v>0.555</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5875</v>
+        <v>0.5925</v>
       </c>
       <c r="P14" t="n">
-        <v>0.5641666666666666</v>
+        <v>0.5658333333333333</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.01699673171197596</v>
+        <v>0.01896634446123506</v>
       </c>
       <c r="R14" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.236291488011678</v>
+        <v>1.363633632659912</v>
       </c>
       <c r="B15" t="n">
-        <v>0.02179511701257475</v>
+        <v>0.05049448851154357</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02238710721333821</v>
+        <v>0.02545452117919922</v>
       </c>
       <c r="D15" t="n">
-        <v>0.002447772575648534</v>
+        <v>0.00554568849843317</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -1357,36 +1357,36 @@
         </is>
       </c>
       <c r="M15" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="N15" t="n">
         <v>0.5625</v>
       </c>
-      <c r="N15" t="n">
-        <v>0.5600000000000001</v>
-      </c>
       <c r="O15" t="n">
-        <v>0.5825</v>
+        <v>0.5875</v>
       </c>
       <c r="P15" t="n">
-        <v>0.5683333333333334</v>
+        <v>0.5716666666666667</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.01006920497799547</v>
+        <v>0.01124228130269339</v>
       </c>
       <c r="R15" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>11.02806750933329</v>
+        <v>7.810027678807576</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3101792787125155</v>
+        <v>0.2600818757356027</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02979779243469238</v>
+        <v>0.02444855372111003</v>
       </c>
       <c r="D16" t="n">
-        <v>0.005228238638924504</v>
+        <v>0.003360292381156617</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
@@ -1411,40 +1411,40 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(14), 'max_features': None, 'min_samples_leaf': 11, 'min_samples_split': 18, 'n_estimators': 441}</t>
+          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(4), 'max_features': None, 'min_samples_leaf': 11, 'min_samples_split': 18, 'n_estimators': 441}</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>0.5675</v>
+        <v>0.57</v>
       </c>
       <c r="N16" t="n">
-        <v>0.585</v>
+        <v>0.5825</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6075</v>
+        <v>0.5925</v>
       </c>
       <c r="P16" t="n">
-        <v>0.5866666666666666</v>
+        <v>0.5816666666666667</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0163724022536571</v>
+        <v>0.009204467514322748</v>
       </c>
       <c r="R16" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5.171015421549479</v>
+        <v>5.597736358642578</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2510752511322105</v>
+        <v>0.2397136168907906</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02070530255635579</v>
+        <v>0.01966309547424316</v>
       </c>
       <c r="D17" t="n">
-        <v>0.003630279053923843</v>
+        <v>0.004155498584626376</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -1471,19 +1471,19 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>0.5925</v>
+        <v>0.595</v>
       </c>
       <c r="N17" t="n">
-        <v>0.585</v>
+        <v>0.58</v>
       </c>
       <c r="O17" t="n">
         <v>0.5875</v>
       </c>
       <c r="P17" t="n">
-        <v>0.5883333333333334</v>
+        <v>0.5874999999999999</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.00311804782231164</v>
+        <v>0.006123724356957951</v>
       </c>
       <c r="R17" t="n">
         <v>5</v>
@@ -1491,16 +1491,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.102966547012329</v>
+        <v>2.247470060984293</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05741908224415206</v>
+        <v>0.08977122035962085</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02506812413533529</v>
+        <v>0.02723002433776855</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0005538775875914007</v>
+        <v>0.0003290881781588725</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1529,40 +1529,40 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'gini', 'max_depth': np.int64(17), 'max_features': 'sqrt', 'min_samples_leaf': 8, 'min_samples_split': 13, 'n_estimators': 467}</t>
+          <t>{'bootstrap': False, 'criterion': 'gini', 'max_depth': np.int64(14), 'max_features': 'sqrt', 'min_samples_leaf': 8, 'min_samples_split': 13, 'n_estimators': 467}</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>0.555</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="N18" t="n">
-        <v>0.5775</v>
+        <v>0.5675</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5975</v>
+        <v>0.6</v>
       </c>
       <c r="P18" t="n">
-        <v>0.5766666666666667</v>
+        <v>0.5758333333333333</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.01736055554666638</v>
+        <v>0.01736055554666635</v>
       </c>
       <c r="R18" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6.713532129923503</v>
+        <v>7.389103412628174</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2121647594746331</v>
+        <v>0.3025719830191498</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01435041427612305</v>
+        <v>0.01993338267008464</v>
       </c>
       <c r="D19" t="n">
-        <v>0.003118612446366329</v>
+        <v>0.005814424618419853</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -1573,7 +1573,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
@@ -1587,40 +1587,40 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(17), 'max_features': None, 'min_samples_leaf': 5, 'min_samples_split': 4, 'n_estimators': 221}</t>
+          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(14), 'max_features': None, 'min_samples_leaf': 5, 'min_samples_split': 4, 'n_estimators': 221}</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>0.5725</v>
+        <v>0.5825</v>
       </c>
       <c r="N19" t="n">
-        <v>0.595</v>
+        <v>0.5775</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5825</v>
+        <v>0.59</v>
       </c>
       <c r="P19" t="n">
         <v>0.5833333333333334</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.009204467514322702</v>
+        <v>0.005137011669140794</v>
       </c>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>7.877787669499715</v>
+        <v>9.551787376403809</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2318874347121674</v>
+        <v>0.293735449599491</v>
       </c>
       <c r="C20" t="n">
-        <v>0.008243004480997721</v>
+        <v>0.01376223564147949</v>
       </c>
       <c r="D20" t="n">
-        <v>5.169866817523907e-05</v>
+        <v>0.002341132959548982</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
@@ -1645,40 +1645,40 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(10), 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 4, 'n_estimators': 150}</t>
+          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(16), 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 4, 'n_estimators': 150}</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>0.455</v>
+        <v>0.4625</v>
       </c>
       <c r="N20" t="n">
-        <v>0.4725</v>
+        <v>0.4375</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4975</v>
+        <v>0.4675</v>
       </c>
       <c r="P20" t="n">
-        <v>0.475</v>
+        <v>0.4558333333333334</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.01744037461371362</v>
+        <v>0.01312334645668636</v>
       </c>
       <c r="R20" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.846545457839966</v>
+        <v>2.25034761428833</v>
       </c>
       <c r="B21" t="n">
-        <v>0.03257787205507403</v>
+        <v>0.06246256092222426</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02045504252115886</v>
+        <v>0.02534929911295573</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0005656265717077696</v>
+        <v>0.001057115687045942</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
@@ -1689,7 +1689,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1707,40 +1707,40 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(8), 'max_features': 'sqrt', 'min_samples_leaf': 5, 'min_samples_split': 15, 'n_estimators': 408}</t>
+          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(11), 'max_features': 'sqrt', 'min_samples_leaf': 5, 'min_samples_split': 15, 'n_estimators': 408}</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>0.5625</v>
       </c>
       <c r="N21" t="n">
-        <v>0.5475</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="O21" t="n">
         <v>0.5875</v>
       </c>
       <c r="P21" t="n">
-        <v>0.5658333333333333</v>
+        <v>0.5716666666666667</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.01649915822768612</v>
+        <v>0.01124228130269339</v>
       </c>
       <c r="R21" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6820348898569742</v>
+        <v>0.738309383392334</v>
       </c>
       <c r="B22" t="n">
-        <v>0.04240789785389693</v>
+        <v>0.04210639378410065</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01703556378682454</v>
+        <v>0.02576088905334473</v>
       </c>
       <c r="D22" t="n">
-        <v>0.002679321517360189</v>
+        <v>0.01056105498210625</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
@@ -1751,7 +1751,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1769,40 +1769,40 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'gini', 'max_depth': np.int64(9), 'max_features': 'log2', 'min_samples_leaf': 13, 'min_samples_split': 8, 'n_estimators': 290}</t>
+          <t>{'bootstrap': True, 'criterion': 'gini', 'max_depth': np.int64(10), 'max_features': 'log2', 'min_samples_leaf': 13, 'min_samples_split': 8, 'n_estimators': 290}</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="N22" t="n">
-        <v>0.5475</v>
+        <v>0.54</v>
       </c>
       <c r="O22" t="n">
         <v>0.575</v>
       </c>
       <c r="P22" t="n">
-        <v>0.5608333333333333</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.01124228130269335</v>
+        <v>0.01471960144387971</v>
       </c>
       <c r="R22" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.179061412811279</v>
+        <v>1.239857117335002</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05808709055276106</v>
+        <v>0.05821873035026019</v>
       </c>
       <c r="C23" t="n">
-        <v>0.02041188875834147</v>
+        <v>0.02247055371602376</v>
       </c>
       <c r="D23" t="n">
-        <v>0.00363630294636674</v>
+        <v>0.001918760545467923</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1831,40 +1831,40 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'gini', 'max_depth': np.int64(18), 'max_features': 'log2', 'min_samples_leaf': 5, 'min_samples_split': 8, 'n_estimators': 286}</t>
+          <t>{'bootstrap': False, 'criterion': 'gini', 'max_depth': np.int64(14), 'max_features': 'log2', 'min_samples_leaf': 5, 'min_samples_split': 8, 'n_estimators': 286}</t>
         </is>
       </c>
       <c r="M23" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="N23" t="n">
         <v>0.5625</v>
       </c>
-      <c r="N23" t="n">
-        <v>0.5649999999999999</v>
-      </c>
       <c r="O23" t="n">
-        <v>0.59</v>
+        <v>0.585</v>
       </c>
       <c r="P23" t="n">
-        <v>0.5724999999999999</v>
+        <v>0.5675</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.01241638702145945</v>
+        <v>0.01274754878398193</v>
       </c>
       <c r="R23" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.7359233697255453</v>
+        <v>0.8031391302744547</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0301739082965845</v>
+        <v>0.07360002537193046</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01419830322265625</v>
+        <v>0.01804574330647786</v>
       </c>
       <c r="D24" t="n">
-        <v>0.003104095858526602</v>
+        <v>0.007711488506734936</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
@@ -1875,7 +1875,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1893,40 +1893,40 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'gini', 'max_depth': np.int64(18), 'max_features': 'sqrt', 'min_samples_leaf': 7, 'min_samples_split': 3, 'n_estimators': 219}</t>
+          <t>{'bootstrap': True, 'criterion': 'gini', 'max_depth': np.int64(14), 'max_features': 'sqrt', 'min_samples_leaf': 7, 'min_samples_split': 3, 'n_estimators': 219}</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>0.5675</v>
+        <v>0.555</v>
       </c>
       <c r="N24" t="n">
-        <v>0.5625</v>
+        <v>0.555</v>
       </c>
       <c r="O24" t="n">
-        <v>0.58</v>
+        <v>0.585</v>
       </c>
       <c r="P24" t="n">
-        <v>0.57</v>
+        <v>0.5650000000000001</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.007359800721939854</v>
+        <v>0.01414213562373091</v>
       </c>
       <c r="R24" t="n">
-        <v>30</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.5103464921315511</v>
+        <v>0.5373226006825765</v>
       </c>
       <c r="B25" t="n">
-        <v>0.005285808947969674</v>
+        <v>0.02635843593884458</v>
       </c>
       <c r="C25" t="n">
-        <v>0.009455839792887369</v>
+        <v>0.009933392206827799</v>
       </c>
       <c r="D25" t="n">
-        <v>0.004360987553809577</v>
+        <v>0.0006761630020760778</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
@@ -1937,7 +1937,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1955,40 +1955,40 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(15), 'max_features': 'sqrt', 'min_samples_leaf': 6, 'min_samples_split': 13, 'n_estimators': 93}</t>
+          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(16), 'max_features': 'sqrt', 'min_samples_leaf': 6, 'min_samples_split': 13, 'n_estimators': 93}</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>0.5725</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="N25" t="n">
-        <v>0.5625</v>
+        <v>0.555</v>
       </c>
       <c r="O25" t="n">
-        <v>0.575</v>
+        <v>0.595</v>
       </c>
       <c r="P25" t="n">
-        <v>0.57</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.005400617248673204</v>
+        <v>0.01779513042005215</v>
       </c>
       <c r="R25" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2.430385589599609</v>
+        <v>2.882306178410848</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1386307136465386</v>
+        <v>0.2437843388753164</v>
       </c>
       <c r="C26" t="n">
-        <v>0.02686731020609538</v>
+        <v>0.03172628084818522</v>
       </c>
       <c r="D26" t="n">
-        <v>0.004728780459727882</v>
+        <v>0.003322023289694059</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2017,40 +2017,40 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(10), 'max_features': 'log2', 'min_samples_leaf': 7, 'min_samples_split': 2, 'n_estimators': 434}</t>
+          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(16), 'max_features': 'log2', 'min_samples_leaf': 7, 'min_samples_split': 2, 'n_estimators': 434}</t>
         </is>
       </c>
       <c r="M26" t="n">
+        <v>0.5575</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.5575</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="P26" t="n">
         <v>0.57</v>
       </c>
-      <c r="N26" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0.5733333333333333</v>
-      </c>
       <c r="Q26" t="n">
-        <v>0.01247219128924644</v>
+        <v>0.01767766952966368</v>
       </c>
       <c r="R26" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1.296892722447713</v>
+        <v>1.405974864959717</v>
       </c>
       <c r="B27" t="n">
-        <v>0.05741903967369909</v>
+        <v>0.03149597230515721</v>
       </c>
       <c r="C27" t="n">
-        <v>0.02195270856221517</v>
+        <v>0.03040870030721029</v>
       </c>
       <c r="D27" t="n">
-        <v>0.002178045839093282</v>
+        <v>0.007601460200675631</v>
       </c>
       <c r="E27" t="b">
         <v>1</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -2079,40 +2079,40 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'gini', 'max_depth': np.int64(15), 'max_features': 'sqrt', 'min_samples_leaf': 9, 'min_samples_split': 4, 'n_estimators': 408}</t>
+          <t>{'bootstrap': True, 'criterion': 'gini', 'max_depth': np.int64(16), 'max_features': 'sqrt', 'min_samples_leaf': 9, 'min_samples_split': 4, 'n_estimators': 408}</t>
         </is>
       </c>
       <c r="M27" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="N27" t="n">
         <v>0.555</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0.5600000000000001</v>
       </c>
       <c r="O27" t="n">
         <v>0.5825</v>
       </c>
       <c r="P27" t="n">
-        <v>0.5658333333333334</v>
+        <v>0.5666666666666668</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.01196058341200609</v>
+        <v>0.01160699023098676</v>
       </c>
       <c r="R27" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2.784157355626424</v>
+        <v>3.208976904551188</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0431312475789167</v>
+        <v>0.1417359337211271</v>
       </c>
       <c r="C28" t="n">
-        <v>0.02620275815327962</v>
+        <v>0.03374568621317545</v>
       </c>
       <c r="D28" t="n">
-        <v>0.004872023635342833</v>
+        <v>0.009257079742412229</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -2141,40 +2141,40 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(10), 'max_features': 'sqrt', 'min_samples_leaf': 5, 'min_samples_split': 2, 'n_estimators': 356}</t>
+          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(16), 'max_features': 'sqrt', 'min_samples_leaf': 5, 'min_samples_split': 2, 'n_estimators': 356}</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="N28" t="n">
-        <v>0.5675</v>
+        <v>0.575</v>
       </c>
       <c r="O28" t="n">
-        <v>0.5875</v>
+        <v>0.595</v>
       </c>
       <c r="P28" t="n">
-        <v>0.5750000000000001</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.008897565210026111</v>
+        <v>0.008498365855987981</v>
       </c>
       <c r="R28" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>15.96721092859904</v>
+        <v>10.42927694320679</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5757986497111331</v>
+        <v>0.3194899809802345</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01662802696228027</v>
+        <v>0.01730656623840332</v>
       </c>
       <c r="D29" t="n">
-        <v>0.001893193179363388</v>
+        <v>0.003266460359428443</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -2185,7 +2185,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
@@ -2199,40 +2199,40 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(14), 'max_features': None, 'min_samples_leaf': 9, 'min_samples_split': 18, 'n_estimators': 367}</t>
+          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(4), 'max_features': None, 'min_samples_leaf': 9, 'min_samples_split': 18, 'n_estimators': 367}</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>0.4675</v>
+        <v>0.5525</v>
       </c>
       <c r="N29" t="n">
-        <v>0.435</v>
+        <v>0.515</v>
       </c>
       <c r="O29" t="n">
-        <v>0.505</v>
+        <v>0.5525</v>
       </c>
       <c r="P29" t="n">
-        <v>0.4691666666666667</v>
+        <v>0.5399999999999999</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.02860167050288419</v>
+        <v>0.01767766952966368</v>
       </c>
       <c r="R29" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.572019497553508</v>
+        <v>2.011142730712891</v>
       </c>
       <c r="B30" t="n">
-        <v>0.02332071629282046</v>
+        <v>0.06460900635776838</v>
       </c>
       <c r="C30" t="n">
-        <v>0.02697992324829102</v>
+        <v>0.03926539421081543</v>
       </c>
       <c r="D30" t="n">
-        <v>0.005104796419439638</v>
+        <v>0.008714780672845118</v>
       </c>
       <c r="E30" t="b">
         <v>1</v>
@@ -2243,7 +2243,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2261,40 +2261,40 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(18), 'max_features': 'log2', 'min_samples_leaf': 7, 'min_samples_split': 3, 'n_estimators': 436}</t>
+          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(14), 'max_features': 'log2', 'min_samples_leaf': 7, 'min_samples_split': 3, 'n_estimators': 436}</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>0.5575</v>
+        <v>0.5525</v>
       </c>
       <c r="N30" t="n">
-        <v>0.5525</v>
+        <v>0.5425</v>
       </c>
       <c r="O30" t="n">
-        <v>0.5825</v>
+        <v>0.5925</v>
       </c>
       <c r="P30" t="n">
-        <v>0.5641666666666666</v>
+        <v>0.5625</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.01312334645668637</v>
+        <v>0.02160246899469289</v>
       </c>
       <c r="R30" t="n">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.4879981676737468</v>
+        <v>0.607821544011434</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0319123080576979</v>
+        <v>0.03139097802551229</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01265692710876465</v>
+        <v>0.01064515113830566</v>
       </c>
       <c r="D31" t="n">
-        <v>0.002504535808729508</v>
+        <v>0.0001952653499839734</v>
       </c>
       <c r="E31" t="b">
         <v>1</v>
@@ -2325,36 +2325,36 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>0.5525</v>
+        <v>0.555</v>
       </c>
       <c r="N31" t="n">
-        <v>0.545</v>
+        <v>0.55</v>
       </c>
       <c r="O31" t="n">
-        <v>0.5775</v>
+        <v>0.575</v>
       </c>
       <c r="P31" t="n">
-        <v>0.5583333333333335</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.01389444333377755</v>
+        <v>0.01080123449734639</v>
       </c>
       <c r="R31" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4.480359236399333</v>
+        <v>4.855047464370728</v>
       </c>
       <c r="B32" t="n">
-        <v>0.01381248416880057</v>
+        <v>0.2519701916894431</v>
       </c>
       <c r="C32" t="n">
-        <v>0.03715769449869791</v>
+        <v>0.0401154359181722</v>
       </c>
       <c r="D32" t="n">
-        <v>0.00730176516375315</v>
+        <v>0.004035704113649581</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2383,40 +2383,40 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(17), 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 452}</t>
+          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(14), 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 452}</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>0.58</v>
+        <v>0.5575</v>
       </c>
       <c r="N32" t="n">
-        <v>0.5925</v>
+        <v>0.5775</v>
       </c>
       <c r="O32" t="n">
-        <v>0.575</v>
+        <v>0.59</v>
       </c>
       <c r="P32" t="n">
-        <v>0.5824999999999999</v>
+        <v>0.5750000000000001</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.007359800721939904</v>
+        <v>0.01338531533684083</v>
       </c>
       <c r="R32" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2.158642133076986</v>
+        <v>3.333986759185791</v>
       </c>
       <c r="B33" t="n">
-        <v>0.057101922155472</v>
+        <v>0.05934650298257215</v>
       </c>
       <c r="C33" t="n">
-        <v>0.02361392974853516</v>
+        <v>0.03948028882344564</v>
       </c>
       <c r="D33" t="n">
-        <v>0.00229367763553271</v>
+        <v>0.004508240667247487</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -2427,7 +2427,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2445,40 +2445,40 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(6), 'max_features': 'log2', 'min_samples_leaf': 6, 'min_samples_split': 5, 'n_estimators': 488}</t>
+          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(18), 'max_features': 'log2', 'min_samples_leaf': 6, 'min_samples_split': 5, 'n_estimators': 488}</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>0.5525</v>
+        <v>0.5625</v>
       </c>
       <c r="N33" t="n">
-        <v>0.55</v>
+        <v>0.5675</v>
       </c>
       <c r="O33" t="n">
-        <v>0.585</v>
+        <v>0.5925</v>
       </c>
       <c r="P33" t="n">
-        <v>0.5625</v>
+        <v>0.5741666666666666</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.01594260539142413</v>
+        <v>0.01312334645668637</v>
       </c>
       <c r="R33" t="n">
-        <v>57</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2.154108365376791</v>
+        <v>2.418243567148844</v>
       </c>
       <c r="B34" t="n">
-        <v>0.04574296838945126</v>
+        <v>0.07069370165587258</v>
       </c>
       <c r="C34" t="n">
-        <v>0.02808268864949544</v>
+        <v>0.02864734331766764</v>
       </c>
       <c r="D34" t="n">
-        <v>0.00467633979143786</v>
+        <v>0.00118343069269817</v>
       </c>
       <c r="E34" t="b">
         <v>1</v>
@@ -2489,7 +2489,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2507,40 +2507,40 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(10), 'max_features': 'sqrt', 'min_samples_leaf': 6, 'min_samples_split': 6, 'n_estimators': 421}</t>
+          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(16), 'max_features': 'sqrt', 'min_samples_leaf': 6, 'min_samples_split': 6, 'n_estimators': 421}</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5575</v>
       </c>
       <c r="N34" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5575</v>
       </c>
       <c r="O34" t="n">
         <v>0.585</v>
       </c>
       <c r="P34" t="n">
-        <v>0.5683333333333334</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.01178511301977575</v>
+        <v>0.01296362432175336</v>
       </c>
       <c r="R34" t="n">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3.823595523834229</v>
+        <v>5.852092027664185</v>
       </c>
       <c r="B35" t="n">
-        <v>0.2772069450401557</v>
+        <v>0.3085548466673058</v>
       </c>
       <c r="C35" t="n">
-        <v>0.007838805516560873</v>
+        <v>0.009875456492106119</v>
       </c>
       <c r="D35" t="n">
-        <v>0.001898016055358853</v>
+        <v>0.001741654594190817</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
@@ -2551,7 +2551,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
@@ -2565,40 +2565,40 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(4), 'max_features': None, 'min_samples_leaf': 16, 'min_samples_split': 17, 'n_estimators': 146}</t>
+          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(12), 'max_features': None, 'min_samples_leaf': 16, 'min_samples_split': 17, 'n_estimators': 146}</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>0.5575</v>
+        <v>0.485</v>
       </c>
       <c r="N35" t="n">
-        <v>0.505</v>
+        <v>0.465</v>
       </c>
       <c r="O35" t="n">
-        <v>0.535</v>
+        <v>0.4825</v>
       </c>
       <c r="P35" t="n">
-        <v>0.5325000000000001</v>
+        <v>0.4775</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.02150581316760657</v>
+        <v>0.008897565210026074</v>
       </c>
       <c r="R35" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.6293994585673014</v>
+        <v>0.7027425765991211</v>
       </c>
       <c r="B36" t="n">
-        <v>0.04365639086961142</v>
+        <v>0.04444136229557756</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01059492429097494</v>
+        <v>0.01463786760965983</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0006290329006988497</v>
+        <v>0.003117118095888153</v>
       </c>
       <c r="E36" t="b">
         <v>1</v>
@@ -2609,7 +2609,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2627,40 +2627,40 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(10), 'max_features': 'log2', 'min_samples_leaf': 16, 'min_samples_split': 4, 'n_estimators': 197}</t>
+          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(16), 'max_features': 'log2', 'min_samples_leaf': 16, 'min_samples_split': 4, 'n_estimators': 197}</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>0.545</v>
+        <v>0.5575</v>
       </c>
       <c r="N36" t="n">
-        <v>0.54</v>
+        <v>0.5425</v>
       </c>
       <c r="O36" t="n">
-        <v>0.57</v>
+        <v>0.5675</v>
       </c>
       <c r="P36" t="n">
-        <v>0.5516666666666666</v>
+        <v>0.5558333333333333</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.01312334645668631</v>
+        <v>0.01027402333828164</v>
       </c>
       <c r="R36" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>12.26221458117167</v>
+        <v>12.69526449839274</v>
       </c>
       <c r="B37" t="n">
-        <v>1.108238071438964</v>
+        <v>0.5125607588147556</v>
       </c>
       <c r="C37" t="n">
-        <v>0.02211085955301921</v>
+        <v>0.02225772539774577</v>
       </c>
       <c r="D37" t="n">
-        <v>0.004163908745464759</v>
+        <v>0.003060489584936113</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
@@ -2685,40 +2685,40 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'gini', 'max_depth': np.int64(18), 'max_features': None, 'min_samples_leaf': 3, 'min_samples_split': 8, 'n_estimators': 357}</t>
+          <t>{'bootstrap': False, 'criterion': 'gini', 'max_depth': np.int64(14), 'max_features': None, 'min_samples_leaf': 3, 'min_samples_split': 8, 'n_estimators': 357}</t>
         </is>
       </c>
       <c r="M37" t="n">
         <v>0.4575</v>
       </c>
       <c r="N37" t="n">
-        <v>0.5</v>
+        <v>0.495</v>
       </c>
       <c r="O37" t="n">
-        <v>0.485</v>
+        <v>0.4925</v>
       </c>
       <c r="P37" t="n">
-        <v>0.4808333333333333</v>
+        <v>0.4816666666666667</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.01759892673495239</v>
+        <v>0.01711886548681177</v>
       </c>
       <c r="R37" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2.782490094502767</v>
+        <v>1.936718702316284</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0702860261131092</v>
+        <v>0.07500528101061904</v>
       </c>
       <c r="C38" t="n">
-        <v>0.009650150934855143</v>
+        <v>0.01418066024780273</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0002263497265532245</v>
+        <v>0.00317270467950083</v>
       </c>
       <c r="E38" t="b">
         <v>1</v>
@@ -2729,7 +2729,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
@@ -2743,40 +2743,40 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'gini', 'max_depth': np.int64(14), 'max_features': None, 'min_samples_leaf': 18, 'min_samples_split': 9, 'n_estimators': 178}</t>
+          <t>{'bootstrap': True, 'criterion': 'gini', 'max_depth': np.int64(4), 'max_features': None, 'min_samples_leaf': 18, 'min_samples_split': 9, 'n_estimators': 178}</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>0.5725</v>
+        <v>0.5625</v>
       </c>
       <c r="N38" t="n">
-        <v>0.5875</v>
+        <v>0.5825</v>
       </c>
       <c r="O38" t="n">
-        <v>0.5925</v>
+        <v>0.595</v>
       </c>
       <c r="P38" t="n">
-        <v>0.5841666666666667</v>
+        <v>0.58</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.008498365855987981</v>
+        <v>0.01338531533684083</v>
       </c>
       <c r="R38" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.6044317881266276</v>
+        <v>0.6414885520935059</v>
       </c>
       <c r="B39" t="n">
-        <v>0.06171402615166831</v>
+        <v>0.02853106123572158</v>
       </c>
       <c r="C39" t="n">
-        <v>0.009341557820638021</v>
+        <v>0.01454718907674154</v>
       </c>
       <c r="D39" t="n">
-        <v>0.001810641895256678</v>
+        <v>0.002122557581012599</v>
       </c>
       <c r="E39" t="b">
         <v>1</v>
@@ -2787,7 +2787,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -2805,40 +2805,40 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(15), 'max_features': 'sqrt', 'min_samples_leaf': 18, 'min_samples_split': 11, 'n_estimators': 148}</t>
+          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(16), 'max_features': 'sqrt', 'min_samples_leaf': 18, 'min_samples_split': 11, 'n_estimators': 148}</t>
         </is>
       </c>
       <c r="M39" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="N39" t="n">
-        <v>0.55</v>
+        <v>0.5475</v>
       </c>
       <c r="O39" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.575</v>
       </c>
       <c r="P39" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.5608333333333333</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.006236095644623202</v>
+        <v>0.01124228130269335</v>
       </c>
       <c r="R39" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.766147295633952</v>
+        <v>1.82784112294515</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1514595770698181</v>
+        <v>0.0699178516780075</v>
       </c>
       <c r="C40" t="n">
-        <v>0.02996929486592611</v>
+        <v>0.02669763565063477</v>
       </c>
       <c r="D40" t="n">
-        <v>0.007315753362233728</v>
+        <v>0.006889412800120041</v>
       </c>
       <c r="E40" t="b">
         <v>1</v>
@@ -2849,7 +2849,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -2867,40 +2867,40 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(9), 'max_features': 'sqrt', 'min_samples_leaf': 17, 'min_samples_split': 3, 'n_estimators': 434}</t>
+          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(10), 'max_features': 'sqrt', 'min_samples_leaf': 17, 'min_samples_split': 3, 'n_estimators': 434}</t>
         </is>
       </c>
       <c r="M40" t="n">
         <v>0.5525</v>
       </c>
       <c r="N40" t="n">
-        <v>0.54</v>
+        <v>0.5475</v>
       </c>
       <c r="O40" t="n">
-        <v>0.575</v>
+        <v>0.5675</v>
       </c>
       <c r="P40" t="n">
         <v>0.5558333333333333</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.01448178933081894</v>
+        <v>0.008498365855987981</v>
       </c>
       <c r="R40" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9881314436594645</v>
+        <v>1.28134560585022</v>
       </c>
       <c r="B41" t="n">
-        <v>0.01663606493948646</v>
+        <v>0.03500297001104254</v>
       </c>
       <c r="C41" t="n">
-        <v>0.01497459411621094</v>
+        <v>0.01166470845540365</v>
       </c>
       <c r="D41" t="n">
-        <v>0.007917160800987007</v>
+        <v>0.002115009896783684</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
@@ -2911,7 +2911,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -2929,40 +2929,40 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(6), 'max_features': 'sqrt', 'min_samples_leaf': 9, 'min_samples_split': 10, 'n_estimators': 148}</t>
+          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(18), 'max_features': 'sqrt', 'min_samples_leaf': 9, 'min_samples_split': 10, 'n_estimators': 148}</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>0.5575</v>
+        <v>0.5625</v>
       </c>
       <c r="N41" t="n">
-        <v>0.55</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="O41" t="n">
-        <v>0.585</v>
+        <v>0.605</v>
       </c>
       <c r="P41" t="n">
-        <v>0.5641666666666666</v>
+        <v>0.5775</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.01504622507105646</v>
+        <v>0.01947220240924654</v>
       </c>
       <c r="R41" t="n">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.6569939454396566</v>
+        <v>0.7840744654337565</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01300752494613443</v>
+        <v>0.05234091446633209</v>
       </c>
       <c r="C42" t="n">
-        <v>0.01381389300028483</v>
+        <v>0.01315601666768392</v>
       </c>
       <c r="D42" t="n">
-        <v>7.638487099825225e-05</v>
+        <v>0.002030761625466563</v>
       </c>
       <c r="E42" t="b">
         <v>1</v>
@@ -2973,7 +2973,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -2991,40 +2991,40 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(8), 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 12, 'n_estimators': 162}</t>
+          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(11), 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 12, 'n_estimators': 162}</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.555</v>
       </c>
       <c r="N42" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5625</v>
       </c>
       <c r="O42" t="n">
-        <v>0.5675</v>
+        <v>0.5725</v>
       </c>
       <c r="P42" t="n">
-        <v>0.5625</v>
+        <v>0.5633333333333334</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.003535533905932715</v>
+        <v>0.007168604389202173</v>
       </c>
       <c r="R42" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.5248745282491049</v>
+        <v>0.988219420115153</v>
       </c>
       <c r="B43" t="n">
-        <v>0.04514472836458729</v>
+        <v>0.06753276570505745</v>
       </c>
       <c r="C43" t="n">
-        <v>0.009636322657267252</v>
+        <v>0.01012945175170898</v>
       </c>
       <c r="D43" t="n">
-        <v>0.001840981571546447</v>
+        <v>0.0006687910439457607</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
@@ -3035,7 +3035,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -3053,40 +3053,40 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(4), 'max_features': 'log2', 'min_samples_leaf': 3, 'min_samples_split': 17, 'n_estimators': 148}</t>
+          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(12), 'max_features': 'log2', 'min_samples_leaf': 3, 'min_samples_split': 17, 'n_estimators': 148}</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>0.5525</v>
+        <v>0.57</v>
       </c>
       <c r="N43" t="n">
-        <v>0.5375</v>
+        <v>0.5625</v>
       </c>
       <c r="O43" t="n">
-        <v>0.55</v>
+        <v>0.5875</v>
       </c>
       <c r="P43" t="n">
-        <v>0.5466666666666666</v>
+        <v>0.5733333333333333</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.00656167322834319</v>
+        <v>0.01047483757498046</v>
       </c>
       <c r="R43" t="n">
-        <v>81</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.821997324625651</v>
+        <v>0.8209946155548096</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1186182661327342</v>
+        <v>0.04544749331635842</v>
       </c>
       <c r="C44" t="n">
-        <v>0.02382826805114746</v>
+        <v>0.02215758959452311</v>
       </c>
       <c r="D44" t="n">
-        <v>0.008801325749369511</v>
+        <v>0.004082570526810853</v>
       </c>
       <c r="E44" t="b">
         <v>1</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -3115,40 +3115,40 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'gini', 'max_depth': np.int64(9), 'max_features': 'log2', 'min_samples_leaf': 18, 'min_samples_split': 3, 'n_estimators': 359}</t>
+          <t>{'bootstrap': True, 'criterion': 'gini', 'max_depth': np.int64(16), 'max_features': 'log2', 'min_samples_leaf': 18, 'min_samples_split': 3, 'n_estimators': 359}</t>
         </is>
       </c>
       <c r="M44" t="n">
         <v>0.5525</v>
       </c>
       <c r="N44" t="n">
-        <v>0.5425</v>
+        <v>0.545</v>
       </c>
       <c r="O44" t="n">
-        <v>0.5675</v>
+        <v>0.5625</v>
       </c>
       <c r="P44" t="n">
-        <v>0.5541666666666667</v>
+        <v>0.5533333333333333</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.01027402333828164</v>
+        <v>0.007168604389202173</v>
       </c>
       <c r="R44" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2.651135762532552</v>
+        <v>2.728054364522298</v>
       </c>
       <c r="B45" t="n">
-        <v>0.06520490710157364</v>
+        <v>0.06296101952160439</v>
       </c>
       <c r="C45" t="n">
-        <v>0.03304624557495117</v>
+        <v>0.03382476170857748</v>
       </c>
       <c r="D45" t="n">
-        <v>0.006325323288541251</v>
+        <v>0.0006905931867365405</v>
       </c>
       <c r="E45" t="b">
         <v>1</v>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -3177,14 +3177,14 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(15), 'max_features': 'sqrt', 'min_samples_leaf': 4, 'min_samples_split': 2, 'n_estimators': 447}</t>
+          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(16), 'max_features': 'sqrt', 'min_samples_leaf': 4, 'min_samples_split': 2, 'n_estimators': 447}</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5575</v>
       </c>
       <c r="N45" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5625</v>
       </c>
       <c r="O45" t="n">
         <v>0.59</v>
@@ -3193,24 +3193,24 @@
         <v>0.57</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.01414213562373091</v>
+        <v>0.01428869016623519</v>
       </c>
       <c r="R45" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5.500527779261271</v>
+        <v>5.973904371261597</v>
       </c>
       <c r="B46" t="n">
-        <v>0.2890407737641764</v>
+        <v>0.2794736102746909</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01552844047546387</v>
+        <v>0.0132140318552653</v>
       </c>
       <c r="D46" t="n">
-        <v>0.000267964098877859</v>
+        <v>0.002194052500860182</v>
       </c>
       <c r="E46" t="b">
         <v>1</v>
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="n">
@@ -3235,40 +3235,40 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(18), 'max_features': None, 'min_samples_leaf': 3, 'min_samples_split': 18, 'n_estimators': 177}</t>
+          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(14), 'max_features': None, 'min_samples_leaf': 3, 'min_samples_split': 18, 'n_estimators': 177}</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="N46" t="n">
-        <v>0.5775</v>
+        <v>0.5875</v>
       </c>
       <c r="O46" t="n">
-        <v>0.5825</v>
+        <v>0.59</v>
       </c>
       <c r="P46" t="n">
-        <v>0.58</v>
+        <v>0.5891666666666667</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.002041241452319317</v>
+        <v>0.001178511301977554</v>
       </c>
       <c r="R46" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6.19629979133606</v>
+        <v>6.452365239461263</v>
       </c>
       <c r="B47" t="n">
-        <v>0.295262724795594</v>
+        <v>0.2255435785061182</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0161895751953125</v>
+        <v>0.01603420575459798</v>
       </c>
       <c r="D47" t="n">
-        <v>0.003343639258366549</v>
+        <v>0.0007740761709184133</v>
       </c>
       <c r="E47" t="b">
         <v>1</v>
@@ -3279,7 +3279,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="n">
@@ -3293,40 +3293,40 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(10), 'max_features': None, 'min_samples_leaf': 14, 'min_samples_split': 7, 'n_estimators': 279}</t>
+          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(16), 'max_features': None, 'min_samples_leaf': 14, 'min_samples_split': 7, 'n_estimators': 279}</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>0.57</v>
+        <v>0.5675</v>
       </c>
       <c r="N47" t="n">
-        <v>0.5875</v>
+        <v>0.5775</v>
       </c>
       <c r="O47" t="n">
-        <v>0.5975</v>
+        <v>0.605</v>
       </c>
       <c r="P47" t="n">
-        <v>0.585</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.01136515141415491</v>
+        <v>0.01585524799203369</v>
       </c>
       <c r="R47" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3.635402123133341</v>
+        <v>7.734774351119995</v>
       </c>
       <c r="B48" t="n">
-        <v>0.006192401848896536</v>
+        <v>0.3938723510049709</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01365780830383301</v>
+        <v>0.02803611755371094</v>
       </c>
       <c r="D48" t="n">
-        <v>6.416989292409258e-05</v>
+        <v>0.005628205414794512</v>
       </c>
       <c r="E48" t="b">
         <v>1</v>
@@ -3337,7 +3337,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="n">
@@ -3351,40 +3351,40 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'gini', 'max_depth': np.int64(4), 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 333}</t>
+          <t>{'bootstrap': True, 'criterion': 'gini', 'max_depth': np.int64(12), 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 333}</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>0.575</v>
+        <v>0.5875</v>
       </c>
       <c r="N48" t="n">
-        <v>0.5775</v>
+        <v>0.5825</v>
       </c>
       <c r="O48" t="n">
-        <v>0.585</v>
+        <v>0.5725</v>
       </c>
       <c r="P48" t="n">
-        <v>0.5791666666666666</v>
+        <v>0.5808333333333333</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.004249182927993984</v>
+        <v>0.006236095644623242</v>
       </c>
       <c r="R48" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.3179039160410563</v>
+        <v>0.3623960812886556</v>
       </c>
       <c r="B49" t="n">
-        <v>0.02099821696817188</v>
+        <v>0.03172487540058093</v>
       </c>
       <c r="C49" t="n">
-        <v>0.006134430567423503</v>
+        <v>0.00640106201171875</v>
       </c>
       <c r="D49" t="n">
-        <v>0.001206677017776274</v>
+        <v>0.001000166043526694</v>
       </c>
       <c r="E49" t="b">
         <v>1</v>
@@ -3415,19 +3415,19 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>0.5425</v>
+        <v>0.5575</v>
       </c>
       <c r="N49" t="n">
         <v>0.5525</v>
       </c>
       <c r="O49" t="n">
-        <v>0.57</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="P49" t="n">
-        <v>0.555</v>
+        <v>0.5583333333333332</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.01136515141415487</v>
+        <v>0.005137011669140794</v>
       </c>
       <c r="R49" t="n">
         <v>71</v>
@@ -3435,16 +3435,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.4656884670257568</v>
+        <v>0.505512555440267</v>
       </c>
       <c r="B50" t="n">
-        <v>0.02934930468715161</v>
+        <v>0.05428112089219644</v>
       </c>
       <c r="C50" t="n">
-        <v>0.01016100247701009</v>
+        <v>0.01033663749694824</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0022046694997483</v>
+        <v>0.001266410116106154</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
@@ -3475,36 +3475,36 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>0.555</v>
+        <v>0.5675</v>
       </c>
       <c r="N50" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5525</v>
       </c>
       <c r="O50" t="n">
         <v>0.5925</v>
       </c>
       <c r="P50" t="n">
-        <v>0.5691666666666667</v>
+        <v>0.5708333333333334</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.01662494778604999</v>
+        <v>0.01649915822768612</v>
       </c>
       <c r="R50" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.7808554172515869</v>
+        <v>0.9849312305450439</v>
       </c>
       <c r="B51" t="n">
-        <v>0.02721802436640604</v>
+        <v>0.1076512430257943</v>
       </c>
       <c r="C51" t="n">
-        <v>0.01144854227701823</v>
+        <v>0.01636695861816406</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0002774827189573743</v>
+        <v>0.003987417016878304</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -3533,17 +3533,17 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'gini', 'max_depth': np.int64(6), 'max_features': 'sqrt', 'min_samples_leaf': 17, 'min_samples_split': 15, 'n_estimators': 230}</t>
+          <t>{'bootstrap': False, 'criterion': 'gini', 'max_depth': np.int64(18), 'max_features': 'sqrt', 'min_samples_leaf': 17, 'min_samples_split': 15, 'n_estimators': 230}</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>0.5575</v>
+        <v>0.5525</v>
       </c>
       <c r="N51" t="n">
-        <v>0.5625</v>
+        <v>0.5725</v>
       </c>
       <c r="O51" t="n">
-        <v>0.5825</v>
+        <v>0.5775</v>
       </c>
       <c r="P51" t="n">
         <v>0.5675</v>
@@ -3552,21 +3552,21 @@
         <v>0.01080123449734644</v>
       </c>
       <c r="R51" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4.169357061386108</v>
+        <v>4.510675271352132</v>
       </c>
       <c r="B52" t="n">
-        <v>0.279688293163342</v>
+        <v>0.1394204216949879</v>
       </c>
       <c r="C52" t="n">
-        <v>0.01314266522725423</v>
+        <v>0.01598962148030599</v>
       </c>
       <c r="D52" t="n">
-        <v>0.003192952672073953</v>
+        <v>0.0007391751241868596</v>
       </c>
       <c r="E52" t="b">
         <v>1</v>
@@ -3593,36 +3593,36 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>0.57</v>
+        <v>0.5825</v>
       </c>
       <c r="N52" t="n">
-        <v>0.575</v>
+        <v>0.5775</v>
       </c>
       <c r="O52" t="n">
-        <v>0.5625</v>
+        <v>0.5775</v>
       </c>
       <c r="P52" t="n">
-        <v>0.5691666666666667</v>
+        <v>0.5791666666666667</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.005137011669140794</v>
+        <v>0.00235702260395516</v>
       </c>
       <c r="R52" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6.386460701624553</v>
+        <v>7.410648425420125</v>
       </c>
       <c r="B53" t="n">
-        <v>0.2695899920410696</v>
+        <v>0.3325351673314187</v>
       </c>
       <c r="C53" t="n">
-        <v>0.01212016741434733</v>
+        <v>0.01450721422831217</v>
       </c>
       <c r="D53" t="n">
-        <v>0.003200547211398499</v>
+        <v>0.003298565955553823</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
@@ -3633,7 +3633,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="n">
@@ -3647,40 +3647,40 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'gini', 'max_depth': np.int64(9), 'max_features': None, 'min_samples_leaf': 3, 'min_samples_split': 9, 'n_estimators': 223}</t>
+          <t>{'bootstrap': False, 'criterion': 'gini', 'max_depth': np.int64(10), 'max_features': None, 'min_samples_leaf': 3, 'min_samples_split': 9, 'n_estimators': 223}</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>0.485</v>
+        <v>0.46</v>
       </c>
       <c r="N53" t="n">
         <v>0.535</v>
       </c>
       <c r="O53" t="n">
-        <v>0.4875</v>
+        <v>0.4925</v>
       </c>
       <c r="P53" t="n">
-        <v>0.5025000000000001</v>
+        <v>0.4958333333333333</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.02300362290307046</v>
+        <v>0.03070920962114713</v>
       </c>
       <c r="R53" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>11.33571569124858</v>
+        <v>24.66256125768026</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0773363274259901</v>
+        <v>0.5182111086277779</v>
       </c>
       <c r="C54" t="n">
-        <v>0.01868009567260742</v>
+        <v>0.02851748466491699</v>
       </c>
       <c r="D54" t="n">
-        <v>0.004983738584835303</v>
+        <v>0.004388296835876857</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="n">
@@ -3705,40 +3705,40 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(4), 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 11, 'n_estimators': 435}</t>
+          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(12), 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 11, 'n_estimators': 435}</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>0.5575</v>
+        <v>0.47</v>
       </c>
       <c r="N54" t="n">
-        <v>0.5125</v>
+        <v>0.47</v>
       </c>
       <c r="O54" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="P54" t="n">
-        <v>0.5433333333333333</v>
+        <v>0.4675</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.02182633475618136</v>
+        <v>0.003535533905932715</v>
       </c>
       <c r="R54" t="n">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.374478975931803</v>
+        <v>0.8718302249908447</v>
       </c>
       <c r="B55" t="n">
-        <v>0.01244651418602972</v>
+        <v>0.03422368945750473</v>
       </c>
       <c r="C55" t="n">
-        <v>0.02250838279724121</v>
+        <v>0.01826222737630208</v>
       </c>
       <c r="D55" t="n">
-        <v>0.004501827569659618</v>
+        <v>0.003627003192570191</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -3767,40 +3767,40 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'gini', 'max_depth': np.int64(14), 'max_features': 'sqrt', 'min_samples_leaf': 9, 'min_samples_split': 12, 'n_estimators': 295}</t>
+          <t>{'bootstrap': False, 'criterion': 'gini', 'max_depth': np.int64(4), 'max_features': 'sqrt', 'min_samples_leaf': 9, 'min_samples_split': 12, 'n_estimators': 295}</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>0.555</v>
+        <v>0.5425</v>
       </c>
       <c r="N55" t="n">
-        <v>0.5725</v>
+        <v>0.545</v>
       </c>
       <c r="O55" t="n">
-        <v>0.59</v>
+        <v>0.5675</v>
       </c>
       <c r="P55" t="n">
-        <v>0.5724999999999999</v>
+        <v>0.5516666666666666</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.01428869016623517</v>
+        <v>0.01124228130269337</v>
       </c>
       <c r="R55" t="n">
-        <v>25</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>12.74474652608236</v>
+        <v>14.47205034891764</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5511379291629998</v>
+        <v>0.4114741447903459</v>
       </c>
       <c r="C56" t="n">
-        <v>0.01808842023213704</v>
+        <v>0.02481834093729655</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0007185320872510933</v>
+        <v>0.006884668427079247</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
@@ -3811,7 +3811,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="n">
@@ -3825,40 +3825,40 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'gini', 'max_depth': np.int64(9), 'max_features': None, 'min_samples_leaf': 3, 'min_samples_split': 19, 'n_estimators': 458}</t>
+          <t>{'bootstrap': False, 'criterion': 'gini', 'max_depth': np.int64(10), 'max_features': None, 'min_samples_leaf': 3, 'min_samples_split': 19, 'n_estimators': 458}</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>0.4825</v>
+        <v>0.4625</v>
       </c>
       <c r="N56" t="n">
-        <v>0.5225</v>
+        <v>0.52</v>
       </c>
       <c r="O56" t="n">
-        <v>0.5</v>
+        <v>0.5024999999999999</v>
       </c>
       <c r="P56" t="n">
-        <v>0.5016666666666666</v>
+        <v>0.4949999999999999</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.01637240225365708</v>
+        <v>0.02406588179698941</v>
       </c>
       <c r="R56" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2.059326887130737</v>
+        <v>2.160284280776978</v>
       </c>
       <c r="B57" t="n">
-        <v>0.05888042776752125</v>
+        <v>0.1434512450461934</v>
       </c>
       <c r="C57" t="n">
-        <v>0.007330973943074544</v>
+        <v>0.005290746688842773</v>
       </c>
       <c r="D57" t="n">
-        <v>0.001221505914610633</v>
+        <v>0.0008686666987182127</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="n">
@@ -3883,40 +3883,40 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'gini', 'max_depth': np.int64(9), 'max_features': None, 'min_samples_leaf': 4, 'min_samples_split': 14, 'n_estimators': 69}</t>
+          <t>{'bootstrap': False, 'criterion': 'gini', 'max_depth': np.int64(10), 'max_features': None, 'min_samples_leaf': 4, 'min_samples_split': 14, 'n_estimators': 69}</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>0.4825</v>
+        <v>0.4675</v>
       </c>
       <c r="N57" t="n">
-        <v>0.5275</v>
+        <v>0.54</v>
       </c>
       <c r="O57" t="n">
-        <v>0.4925</v>
+        <v>0.4975</v>
       </c>
       <c r="P57" t="n">
-        <v>0.5008333333333334</v>
+        <v>0.5016666666666667</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.01929306150465037</v>
+        <v>0.02974428049595792</v>
       </c>
       <c r="R57" t="n">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>7.998926719029744</v>
+        <v>8.613695939381918</v>
       </c>
       <c r="B58" t="n">
-        <v>0.3922404267919344</v>
+        <v>0.5003714738065851</v>
       </c>
       <c r="C58" t="n">
-        <v>0.02084239323933919</v>
+        <v>0.02161868413289388</v>
       </c>
       <c r="D58" t="n">
-        <v>0.004592425133166064</v>
+        <v>0.004093036716897733</v>
       </c>
       <c r="E58" t="b">
         <v>1</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="n">
@@ -3941,40 +3941,40 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(8), 'max_features': None, 'min_samples_leaf': 15, 'min_samples_split': 3, 'n_estimators': 371}</t>
+          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(11), 'max_features': None, 'min_samples_leaf': 15, 'min_samples_split': 3, 'n_estimators': 371}</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>0.575</v>
+        <v>0.58</v>
       </c>
       <c r="N58" t="n">
-        <v>0.5925</v>
+        <v>0.585</v>
       </c>
       <c r="O58" t="n">
-        <v>0.6</v>
+        <v>0.5975</v>
       </c>
       <c r="P58" t="n">
-        <v>0.5891666666666667</v>
+        <v>0.5875</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.01047483757498046</v>
+        <v>0.007359800721939904</v>
       </c>
       <c r="R58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5.824813763300578</v>
+        <v>9.518018881479898</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1704892782238178</v>
+        <v>0.4690170684993441</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0137177308400472</v>
+        <v>0.02590783437093099</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0002243757685640544</v>
+        <v>0.008461070215245548</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="n">
@@ -3999,40 +3999,40 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'gini', 'max_depth': np.int64(4), 'max_features': None, 'min_samples_leaf': 17, 'min_samples_split': 11, 'n_estimators': 375}</t>
+          <t>{'bootstrap': False, 'criterion': 'gini', 'max_depth': np.int64(12), 'max_features': None, 'min_samples_leaf': 17, 'min_samples_split': 11, 'n_estimators': 375}</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>0.5075</v>
+        <v>0.5</v>
       </c>
       <c r="N59" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="O59" t="n">
-        <v>0.5525</v>
+        <v>0.5</v>
       </c>
       <c r="P59" t="n">
-        <v>0.5266666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.01896634446123508</v>
+        <v>0</v>
       </c>
       <c r="R59" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.566605011622111</v>
+        <v>0.616851011912028</v>
       </c>
       <c r="B60" t="n">
-        <v>0.03265399423182658</v>
+        <v>0.02099720812038422</v>
       </c>
       <c r="C60" t="n">
-        <v>0.007685184478759766</v>
+        <v>0.007214546203613281</v>
       </c>
       <c r="D60" t="n">
-        <v>0.001587310374348777</v>
+        <v>0.0001070094899449793</v>
       </c>
       <c r="E60" t="b">
         <v>1</v>
@@ -4043,7 +4043,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -4061,40 +4061,40 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(10), 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 9, 'n_estimators': 102}</t>
+          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(16), 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 9, 'n_estimators': 102}</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>0.555</v>
+        <v>0.57</v>
       </c>
       <c r="N60" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="O60" t="n">
-        <v>0.58</v>
+        <v>0.5825</v>
       </c>
       <c r="P60" t="n">
-        <v>0.5650000000000001</v>
+        <v>0.5724999999999999</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.01080123449734639</v>
+        <v>0.007359800721939904</v>
       </c>
       <c r="R60" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>15.21729834874471</v>
+        <v>23.30690042177836</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6168618337698614</v>
+        <v>0.6539466124556662</v>
       </c>
       <c r="C61" t="n">
-        <v>0.01996167500813802</v>
+        <v>0.02461544672648112</v>
       </c>
       <c r="D61" t="n">
-        <v>0.005587365160204165</v>
+        <v>0.002317672630737687</v>
       </c>
       <c r="E61" t="b">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="n">
@@ -4119,40 +4119,40 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(6), 'max_features': None, 'min_samples_leaf': 4, 'min_samples_split': 7, 'n_estimators': 414}</t>
+          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(18), 'max_features': None, 'min_samples_leaf': 4, 'min_samples_split': 7, 'n_estimators': 414}</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>0.5</v>
+        <v>0.485</v>
       </c>
       <c r="N61" t="n">
-        <v>0.4975</v>
+        <v>0.445</v>
       </c>
       <c r="O61" t="n">
-        <v>0.5575</v>
+        <v>0.49</v>
       </c>
       <c r="P61" t="n">
-        <v>0.5183333333333334</v>
+        <v>0.4733333333333333</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.02771381524719315</v>
+        <v>0.02013840995599095</v>
       </c>
       <c r="R61" t="n">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>12.89650503794352</v>
+        <v>15.47219546635946</v>
       </c>
       <c r="B62" t="n">
-        <v>0.4392368916943724</v>
+        <v>0.9749530458560492</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0134891668955485</v>
+        <v>0.02279241879781087</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0004120978681189329</v>
+        <v>0.005846915533318234</v>
       </c>
       <c r="E62" t="b">
         <v>0</v>
@@ -4163,7 +4163,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="n">
@@ -4177,23 +4177,23 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(8), 'max_features': None, 'min_samples_leaf': 8, 'min_samples_split': 17, 'n_estimators': 318}</t>
+          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(11), 'max_features': None, 'min_samples_leaf': 8, 'min_samples_split': 17, 'n_estimators': 318}</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
       <c r="N62" t="n">
-        <v>0.4625</v>
+        <v>0.4425</v>
       </c>
       <c r="O62" t="n">
-        <v>0.515</v>
+        <v>0.4925</v>
       </c>
       <c r="P62" t="n">
-        <v>0.4825</v>
+        <v>0.475</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.02318404623873926</v>
+        <v>0.02300362290307043</v>
       </c>
       <c r="R62" t="n">
         <v>96</v>
@@ -4201,16 +4201,16 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.7038807074228922</v>
+        <v>0.8014540672302246</v>
       </c>
       <c r="B63" t="n">
-        <v>0.03793038586349098</v>
+        <v>0.06528125545059246</v>
       </c>
       <c r="C63" t="n">
-        <v>0.01084009806315104</v>
+        <v>0.01397418975830078</v>
       </c>
       <c r="D63" t="n">
-        <v>0.002081950525293351</v>
+        <v>0.003869025456966282</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -4239,40 +4239,40 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(9), 'max_features': 'log2', 'min_samples_leaf': 19, 'min_samples_split': 18, 'n_estimators': 169}</t>
+          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(10), 'max_features': 'log2', 'min_samples_leaf': 19, 'min_samples_split': 18, 'n_estimators': 169}</t>
         </is>
       </c>
       <c r="M63" t="n">
         <v>0.5575</v>
       </c>
       <c r="N63" t="n">
-        <v>0.5525</v>
+        <v>0.5625</v>
       </c>
       <c r="O63" t="n">
         <v>0.5775</v>
       </c>
       <c r="P63" t="n">
-        <v>0.5625</v>
+        <v>0.5658333333333334</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.01080123449734644</v>
+        <v>0.008498365855987983</v>
       </c>
       <c r="R63" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>7.720594088236491</v>
+        <v>8.560035626093546</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1380882902535474</v>
+        <v>0.1089855613809214</v>
       </c>
       <c r="C64" t="n">
-        <v>0.03439529736836752</v>
+        <v>0.02980256080627441</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0004151550221357221</v>
+        <v>0.005829535739565785</v>
       </c>
       <c r="E64" t="b">
         <v>1</v>
@@ -4283,7 +4283,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="n">
@@ -4297,40 +4297,40 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'gini', 'max_depth': np.int64(9), 'max_features': None, 'min_samples_leaf': 5, 'min_samples_split': 10, 'n_estimators': 445}</t>
+          <t>{'bootstrap': True, 'criterion': 'gini', 'max_depth': np.int64(10), 'max_features': None, 'min_samples_leaf': 5, 'min_samples_split': 10, 'n_estimators': 445}</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>0.5775</v>
+        <v>0.58</v>
       </c>
       <c r="N64" t="n">
-        <v>0.5775</v>
+        <v>0.59</v>
       </c>
       <c r="O64" t="n">
-        <v>0.585</v>
+        <v>0.5875</v>
       </c>
       <c r="P64" t="n">
-        <v>0.58</v>
+        <v>0.5858333333333333</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.003535533905932715</v>
+        <v>0.004249182927993998</v>
       </c>
       <c r="R64" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.8938153584798177</v>
+        <v>1.008106629053752</v>
       </c>
       <c r="B65" t="n">
-        <v>0.001258324779814761</v>
+        <v>0.004838050783456828</v>
       </c>
       <c r="C65" t="n">
-        <v>0.01746273040771484</v>
+        <v>0.02120844523111979</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0004054144186574987</v>
+        <v>0.0009966141929932933</v>
       </c>
       <c r="E65" t="b">
         <v>1</v>
@@ -4341,7 +4341,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -4359,40 +4359,40 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'gini', 'max_depth': np.int64(9), 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 16, 'n_estimators': 339}</t>
+          <t>{'bootstrap': True, 'criterion': 'gini', 'max_depth': np.int64(10), 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 16, 'n_estimators': 339}</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>0.5625</v>
+        <v>0.5575</v>
       </c>
       <c r="N65" t="n">
-        <v>0.555</v>
+        <v>0.5525</v>
       </c>
       <c r="O65" t="n">
-        <v>0.575</v>
+        <v>0.58</v>
       </c>
       <c r="P65" t="n">
-        <v>0.5641666666666667</v>
+        <v>0.5633333333333334</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.008249579113843017</v>
+        <v>0.01196058341200609</v>
       </c>
       <c r="R65" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.817446708679199</v>
+        <v>3.330605904261271</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1051874290734913</v>
+        <v>0.1193271061581215</v>
       </c>
       <c r="C66" t="n">
-        <v>0.02396686871846517</v>
+        <v>0.02675938606262207</v>
       </c>
       <c r="D66" t="n">
-        <v>0.004874255446484409</v>
+        <v>0.002546120895816297</v>
       </c>
       <c r="E66" t="b">
         <v>0</v>
@@ -4403,7 +4403,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -4421,40 +4421,40 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(4), 'max_features': 'sqrt', 'min_samples_leaf': 8, 'min_samples_split': 14, 'n_estimators': 422}</t>
+          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(12), 'max_features': 'sqrt', 'min_samples_leaf': 8, 'min_samples_split': 14, 'n_estimators': 422}</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>0.545</v>
+        <v>0.5675</v>
       </c>
       <c r="N66" t="n">
-        <v>0.545</v>
+        <v>0.5675</v>
       </c>
       <c r="O66" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="P66" t="n">
-        <v>0.5516666666666666</v>
+        <v>0.5783333333333333</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.00942809041582059</v>
+        <v>0.01532064692570852</v>
       </c>
       <c r="R66" t="n">
-        <v>78</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>3.605916182200114</v>
+        <v>4.005822102228801</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1110548105566685</v>
+        <v>0.1975407266509032</v>
       </c>
       <c r="C67" t="n">
-        <v>0.007900396982828775</v>
+        <v>0.01355147361755371</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0003887910580425975</v>
+        <v>0.004413503045786082</v>
       </c>
       <c r="E67" t="b">
         <v>1</v>
@@ -4465,7 +4465,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="n">
@@ -4479,40 +4479,40 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(17), 'max_features': None, 'min_samples_leaf': 5, 'min_samples_split': 4, 'n_estimators': 125}</t>
+          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(14), 'max_features': None, 'min_samples_leaf': 5, 'min_samples_split': 4, 'n_estimators': 125}</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>0.5775</v>
+        <v>0.5725</v>
       </c>
       <c r="N67" t="n">
-        <v>0.5825</v>
+        <v>0.575</v>
       </c>
       <c r="O67" t="n">
-        <v>0.5875</v>
+        <v>0.5975</v>
       </c>
       <c r="P67" t="n">
-        <v>0.5825</v>
+        <v>0.5816666666666667</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.004082482904638634</v>
+        <v>0.01124228130269339</v>
       </c>
       <c r="R67" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.5462450981140137</v>
+        <v>0.6258198420206705</v>
       </c>
       <c r="B68" t="n">
-        <v>0.009622629209676778</v>
+        <v>0.03151220784228802</v>
       </c>
       <c r="C68" t="n">
-        <v>0.006091753641764323</v>
+        <v>0.006773551305135091</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0002742728711818529</v>
+        <v>0.000385151142756147</v>
       </c>
       <c r="E68" t="b">
         <v>0</v>
@@ -4523,7 +4523,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -4541,40 +4541,40 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(8), 'max_features': 'sqrt', 'min_samples_leaf': 14, 'min_samples_split': 6, 'n_estimators': 96}</t>
+          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(11), 'max_features': 'sqrt', 'min_samples_leaf': 14, 'min_samples_split': 6, 'n_estimators': 96}</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>0.5625</v>
+        <v>0.5675</v>
       </c>
       <c r="N68" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="O68" t="n">
-        <v>0.5875</v>
+        <v>0.595</v>
       </c>
       <c r="P68" t="n">
-        <v>0.57</v>
+        <v>0.5758333333333333</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.01241638702145945</v>
+        <v>0.01359125535858341</v>
       </c>
       <c r="R68" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1.063633759816488</v>
+        <v>1.154767513275146</v>
       </c>
       <c r="B69" t="n">
-        <v>0.03544797530660165</v>
+        <v>0.01592586221384754</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0161128044128418</v>
+        <v>0.01578219731648763</v>
       </c>
       <c r="D69" t="n">
-        <v>0.003396373713020843</v>
+        <v>0.001158743832015049</v>
       </c>
       <c r="E69" t="b">
         <v>1</v>
@@ -4585,7 +4585,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -4603,40 +4603,40 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(18), 'max_features': 'sqrt', 'min_samples_leaf': 12, 'min_samples_split': 17, 'n_estimators': 267}</t>
+          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(14), 'max_features': 'sqrt', 'min_samples_leaf': 12, 'min_samples_split': 17, 'n_estimators': 267}</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="N69" t="n">
-        <v>0.54</v>
+        <v>0.555</v>
       </c>
       <c r="O69" t="n">
         <v>0.585</v>
       </c>
       <c r="P69" t="n">
-        <v>0.5633333333333334</v>
+        <v>0.57</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.0184089350286454</v>
+        <v>0.01224744871391586</v>
       </c>
       <c r="R69" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>11.65043608347575</v>
+        <v>17.23297882080078</v>
       </c>
       <c r="B70" t="n">
-        <v>0.08508241741637322</v>
+        <v>0.9360635906133843</v>
       </c>
       <c r="C70" t="n">
-        <v>0.01734336217244466</v>
+        <v>0.02444005012512207</v>
       </c>
       <c r="D70" t="n">
-        <v>0.003431587370152813</v>
+        <v>0.004096373180912253</v>
       </c>
       <c r="E70" t="b">
         <v>0</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="n">
@@ -4661,40 +4661,40 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(6), 'max_features': None, 'min_samples_leaf': 4, 'min_samples_split': 2, 'n_estimators': 303}</t>
+          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(18), 'max_features': None, 'min_samples_leaf': 4, 'min_samples_split': 2, 'n_estimators': 303}</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>0.5024999999999999</v>
+        <v>0.4925</v>
       </c>
       <c r="N70" t="n">
-        <v>0.4975</v>
+        <v>0.44</v>
       </c>
       <c r="O70" t="n">
-        <v>0.5575</v>
+        <v>0.49</v>
       </c>
       <c r="P70" t="n">
-        <v>0.5191666666666667</v>
+        <v>0.4741666666666666</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.02718251071716683</v>
+        <v>0.02418103021424484</v>
       </c>
       <c r="R70" t="n">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.5094559192657471</v>
+        <v>0.5399616559346517</v>
       </c>
       <c r="B71" t="n">
-        <v>0.04257432203510184</v>
+        <v>0.01688088977299969</v>
       </c>
       <c r="C71" t="n">
-        <v>0.01058832804361979</v>
+        <v>0.01345499356587728</v>
       </c>
       <c r="D71" t="n">
-        <v>0.00217281061961586</v>
+        <v>0.0007615932949888637</v>
       </c>
       <c r="E71" t="b">
         <v>0</v>
@@ -4705,7 +4705,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -4723,40 +4723,40 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'gini', 'max_depth': np.int64(17), 'max_features': 'log2', 'min_samples_leaf': 10, 'min_samples_split': 6, 'n_estimators': 149}</t>
+          <t>{'bootstrap': False, 'criterion': 'gini', 'max_depth': np.int64(14), 'max_features': 'log2', 'min_samples_leaf': 10, 'min_samples_split': 6, 'n_estimators': 149}</t>
         </is>
       </c>
       <c r="M71" t="n">
         <v>0.57</v>
       </c>
       <c r="N71" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5525</v>
       </c>
       <c r="O71" t="n">
-        <v>0.5875</v>
+        <v>0.595</v>
       </c>
       <c r="P71" t="n">
-        <v>0.5724999999999999</v>
+        <v>0.5725</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.01136515141415487</v>
+        <v>0.01744037461371362</v>
       </c>
       <c r="R71" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.564206600189209</v>
+        <v>1.681610266367594</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1385422356623937</v>
+        <v>0.05961785909699028</v>
       </c>
       <c r="C72" t="n">
-        <v>0.02159945170084636</v>
+        <v>0.02469690640767415</v>
       </c>
       <c r="D72" t="n">
-        <v>0.004016257976983129</v>
+        <v>0.003961941843048522</v>
       </c>
       <c r="E72" t="b">
         <v>0</v>
@@ -4767,7 +4767,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -4785,40 +4785,40 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(9), 'max_features': 'log2', 'min_samples_leaf': 19, 'min_samples_split': 2, 'n_estimators': 374}</t>
+          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(10), 'max_features': 'log2', 'min_samples_leaf': 19, 'min_samples_split': 2, 'n_estimators': 374}</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5525</v>
       </c>
       <c r="N72" t="n">
-        <v>0.5525</v>
+        <v>0.545</v>
       </c>
       <c r="O72" t="n">
         <v>0.5825</v>
       </c>
       <c r="P72" t="n">
-        <v>0.5650000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.01274754878398197</v>
+        <v>0.01620185174601965</v>
       </c>
       <c r="R72" t="n">
-        <v>47</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>13.00017841657003</v>
+        <v>8.21414558092753</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5147371391722515</v>
+        <v>0.08685973363454393</v>
       </c>
       <c r="C73" t="n">
-        <v>0.02837101618448893</v>
+        <v>0.02342685063680013</v>
       </c>
       <c r="D73" t="n">
-        <v>0.003801395636633755</v>
+        <v>0.002698616862458288</v>
       </c>
       <c r="E73" t="b">
         <v>1</v>
@@ -4829,7 +4829,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
@@ -4843,40 +4843,40 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(14), 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 18, 'n_estimators': 433}</t>
+          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(4), 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 18, 'n_estimators': 433}</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>0.59</v>
+        <v>0.5675</v>
       </c>
       <c r="N73" t="n">
-        <v>0.5875</v>
+        <v>0.5825</v>
       </c>
       <c r="O73" t="n">
-        <v>0.59</v>
+        <v>0.585</v>
       </c>
       <c r="P73" t="n">
-        <v>0.5891666666666667</v>
+        <v>0.5783333333333333</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.001178511301977554</v>
+        <v>0.007728015412913077</v>
       </c>
       <c r="R73" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.005300601323446</v>
+        <v>2.064143180847168</v>
       </c>
       <c r="B74" t="n">
-        <v>0.05763503309854269</v>
+        <v>0.0619861556075112</v>
       </c>
       <c r="C74" t="n">
-        <v>0.03260477383931478</v>
+        <v>0.03278382619222005</v>
       </c>
       <c r="D74" t="n">
-        <v>0.006034628602416767</v>
+        <v>0.003008633957083317</v>
       </c>
       <c r="E74" t="b">
         <v>0</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -4905,40 +4905,40 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'gini', 'max_depth': np.int64(18), 'max_features': 'log2', 'min_samples_leaf': 3, 'min_samples_split': 2, 'n_estimators': 466}</t>
+          <t>{'bootstrap': False, 'criterion': 'gini', 'max_depth': np.int64(14), 'max_features': 'log2', 'min_samples_leaf': 3, 'min_samples_split': 2, 'n_estimators': 466}</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>0.5675</v>
+        <v>0.5625</v>
       </c>
       <c r="N74" t="n">
-        <v>0.5575</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O74" t="n">
-        <v>0.6</v>
+        <v>0.5875</v>
       </c>
       <c r="P74" t="n">
-        <v>0.5750000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.01814295088089769</v>
+        <v>0.01241638702145945</v>
       </c>
       <c r="R74" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.3100810845692952</v>
+        <v>0.342960516611735</v>
       </c>
       <c r="B75" t="n">
-        <v>0.00245670342030779</v>
+        <v>0.01212169998803132</v>
       </c>
       <c r="C75" t="n">
-        <v>0.006670475006103516</v>
+        <v>0.008245388666788736</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0001198305788222648</v>
+        <v>0.001406918012559255</v>
       </c>
       <c r="E75" t="b">
         <v>1</v>
@@ -4949,7 +4949,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -4967,40 +4967,40 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'gini', 'max_depth': np.int64(10), 'max_features': 'sqrt', 'min_samples_leaf': 12, 'min_samples_split': 4, 'n_estimators': 114}</t>
+          <t>{'bootstrap': True, 'criterion': 'gini', 'max_depth': np.int64(16), 'max_features': 'sqrt', 'min_samples_leaf': 12, 'min_samples_split': 4, 'n_estimators': 114}</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>0.5475</v>
+        <v>0.5525</v>
       </c>
       <c r="N75" t="n">
-        <v>0.555</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O75" t="n">
-        <v>0.5625</v>
+        <v>0.59</v>
       </c>
       <c r="P75" t="n">
-        <v>0.555</v>
+        <v>0.5675</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.006123724356957951</v>
+        <v>0.01620185174601963</v>
       </c>
       <c r="R75" t="n">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1.345139662424723</v>
+        <v>1.461399157842</v>
       </c>
       <c r="B76" t="n">
-        <v>0.02484044397752204</v>
+        <v>0.03813244037303582</v>
       </c>
       <c r="C76" t="n">
-        <v>0.00434112548828125</v>
+        <v>0.004921515782674153</v>
       </c>
       <c r="D76" t="n">
-        <v>2.813002463836499e-05</v>
+        <v>0.0001266636832292831</v>
       </c>
       <c r="E76" t="b">
         <v>1</v>
@@ -5011,7 +5011,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="n">
@@ -5025,40 +5025,40 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(9), 'max_features': None, 'min_samples_leaf': 12, 'min_samples_split': 14, 'n_estimators': 61}</t>
+          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(10), 'max_features': None, 'min_samples_leaf': 12, 'min_samples_split': 14, 'n_estimators': 61}</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>0.5725</v>
+        <v>0.58</v>
       </c>
       <c r="N76" t="n">
-        <v>0.575</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="O76" t="n">
         <v>0.6</v>
       </c>
       <c r="P76" t="n">
-        <v>0.5825</v>
+        <v>0.5816666666666667</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.01241638702145945</v>
+        <v>0.01433720877840439</v>
       </c>
       <c r="R76" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.3118839263916016</v>
+        <v>0.3165408770243327</v>
       </c>
       <c r="B77" t="n">
-        <v>0.005015062253874636</v>
+        <v>0.004797075441382906</v>
       </c>
       <c r="C77" t="n">
-        <v>0.006838560104370117</v>
+        <v>0.006130854288736979</v>
       </c>
       <c r="D77" t="n">
-        <v>0.001223673642775396</v>
+        <v>0.000845065437421557</v>
       </c>
       <c r="E77" t="b">
         <v>1</v>
@@ -5069,7 +5069,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -5087,40 +5087,40 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(9), 'max_features': 'sqrt', 'min_samples_leaf': 19, 'min_samples_split': 19, 'n_estimators': 84}</t>
+          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(16), 'max_features': 'sqrt', 'min_samples_leaf': 19, 'min_samples_split': 19, 'n_estimators': 84}</t>
         </is>
       </c>
       <c r="M77" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="N77" t="n">
         <v>0.555</v>
       </c>
-      <c r="N77" t="n">
-        <v>0.5525</v>
-      </c>
       <c r="O77" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.585</v>
       </c>
       <c r="P77" t="n">
-        <v>0.5575</v>
+        <v>0.5616666666666666</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.005400617248673187</v>
+        <v>0.01699673171197591</v>
       </c>
       <c r="R77" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.4861478010813395</v>
+        <v>0.5476442178090414</v>
       </c>
       <c r="B78" t="n">
-        <v>0.01790071537611133</v>
+        <v>0.02804763290369451</v>
       </c>
       <c r="C78" t="n">
-        <v>0.01065548261006673</v>
+        <v>0.01443084081013997</v>
       </c>
       <c r="D78" t="n">
-        <v>0.002034313706981659</v>
+        <v>0.0005100627448883352</v>
       </c>
       <c r="E78" t="b">
         <v>1</v>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -5149,40 +5149,40 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'gini', 'max_depth': np.int64(9), 'max_features': 'sqrt', 'min_samples_leaf': 10, 'min_samples_split': 3, 'n_estimators': 164}</t>
+          <t>{'bootstrap': True, 'criterion': 'gini', 'max_depth': np.int64(10), 'max_features': 'sqrt', 'min_samples_leaf': 10, 'min_samples_split': 3, 'n_estimators': 164}</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>0.555</v>
+        <v>0.5525</v>
       </c>
       <c r="N78" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5675</v>
       </c>
       <c r="O78" t="n">
-        <v>0.5825</v>
+        <v>0.58</v>
       </c>
       <c r="P78" t="n">
-        <v>0.5675</v>
+        <v>0.5666666666666668</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.01136515141415487</v>
+        <v>0.01124228130269336</v>
       </c>
       <c r="R78" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.261053482691447</v>
+        <v>0.2790454228719075</v>
       </c>
       <c r="B79" t="n">
-        <v>0.004830071733649258</v>
+        <v>0.01477735577847047</v>
       </c>
       <c r="C79" t="n">
-        <v>0.006841659545898438</v>
+        <v>0.008460601170857748</v>
       </c>
       <c r="D79" t="n">
-        <v>8.218100861697243e-05</v>
+        <v>0.0005414219557201208</v>
       </c>
       <c r="E79" t="b">
         <v>1</v>
@@ -5193,7 +5193,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -5211,40 +5211,40 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'gini', 'max_depth': np.int64(18), 'max_features': 'log2', 'min_samples_leaf': 18, 'min_samples_split': 14, 'n_estimators': 124}</t>
+          <t>{'bootstrap': True, 'criterion': 'gini', 'max_depth': np.int64(14), 'max_features': 'log2', 'min_samples_leaf': 18, 'min_samples_split': 14, 'n_estimators': 124}</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>0.5575</v>
+        <v>0.5525</v>
       </c>
       <c r="N79" t="n">
-        <v>0.5425</v>
+        <v>0.55</v>
       </c>
       <c r="O79" t="n">
-        <v>0.5675</v>
+        <v>0.575</v>
       </c>
       <c r="P79" t="n">
-        <v>0.5558333333333333</v>
+        <v>0.5591666666666667</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.01027402333828164</v>
+        <v>0.01124228130269334</v>
       </c>
       <c r="R79" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.204153776168823</v>
+        <v>2.307267189025879</v>
       </c>
       <c r="B80" t="n">
-        <v>0.08415276375259967</v>
+        <v>0.05125954539856339</v>
       </c>
       <c r="C80" t="n">
-        <v>0.02979612350463867</v>
+        <v>0.02687732378641764</v>
       </c>
       <c r="D80" t="n">
-        <v>0.005950769665342707</v>
+        <v>0.001735044818682297</v>
       </c>
       <c r="E80" t="b">
         <v>1</v>
@@ -5255,7 +5255,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -5273,40 +5273,40 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(18), 'max_features': 'sqrt', 'min_samples_leaf': 4, 'min_samples_split': 11, 'n_estimators': 406}</t>
+          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(14), 'max_features': 'sqrt', 'min_samples_leaf': 4, 'min_samples_split': 11, 'n_estimators': 406}</t>
         </is>
       </c>
       <c r="M80" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="N80" t="n">
         <v>0.5675</v>
       </c>
-      <c r="N80" t="n">
-        <v>0.5575</v>
-      </c>
       <c r="O80" t="n">
-        <v>0.585</v>
+        <v>0.5925</v>
       </c>
       <c r="P80" t="n">
-        <v>0.57</v>
+        <v>0.5716666666666667</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.01136515141415487</v>
+        <v>0.01559023911155808</v>
       </c>
       <c r="R80" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.4016995429992676</v>
+        <v>0.4785002072652181</v>
       </c>
       <c r="B81" t="n">
-        <v>0.02549114815651022</v>
+        <v>0.01709642769662939</v>
       </c>
       <c r="C81" t="n">
-        <v>0.006321509679158528</v>
+        <v>0.006507078806559245</v>
       </c>
       <c r="D81" t="n">
-        <v>0.001105329075012494</v>
+        <v>0.0005504018882628973</v>
       </c>
       <c r="E81" t="b">
         <v>1</v>
@@ -5317,7 +5317,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -5335,40 +5335,40 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(8), 'max_features': 'sqrt', 'min_samples_leaf': 3, 'min_samples_split': 17, 'n_estimators': 85}</t>
+          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(11), 'max_features': 'sqrt', 'min_samples_leaf': 3, 'min_samples_split': 17, 'n_estimators': 85}</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>0.55</v>
+        <v>0.555</v>
       </c>
       <c r="N81" t="n">
-        <v>0.555</v>
+        <v>0.5875</v>
       </c>
       <c r="O81" t="n">
-        <v>0.5725</v>
+        <v>0.585</v>
       </c>
       <c r="P81" t="n">
-        <v>0.5591666666666667</v>
+        <v>0.5758333333333333</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.009646530752325171</v>
+        <v>0.0147667042888911</v>
       </c>
       <c r="R81" t="n">
-        <v>64</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>12.43586659431458</v>
+        <v>14.01814635594686</v>
       </c>
       <c r="B82" t="n">
-        <v>0.786529246442789</v>
+        <v>0.7724726244634972</v>
       </c>
       <c r="C82" t="n">
-        <v>0.01644523938496907</v>
+        <v>0.02216744422912598</v>
       </c>
       <c r="D82" t="n">
-        <v>0.005252213101300409</v>
+        <v>0.007352854346855397</v>
       </c>
       <c r="E82" t="b">
         <v>0</v>
@@ -5379,7 +5379,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="n">
@@ -5393,7 +5393,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'gini', 'max_depth': np.int64(17), 'max_features': None, 'min_samples_leaf': 5, 'min_samples_split': 13, 'n_estimators': 418}</t>
+          <t>{'bootstrap': False, 'criterion': 'gini', 'max_depth': np.int64(14), 'max_features': None, 'min_samples_leaf': 5, 'min_samples_split': 13, 'n_estimators': 418}</t>
         </is>
       </c>
       <c r="M82" t="n">
@@ -5412,21 +5412,21 @@
         <v>0.03255337497437436</v>
       </c>
       <c r="R82" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1.237720012664795</v>
+        <v>1.360799153645833</v>
       </c>
       <c r="B83" t="n">
-        <v>0.08451493573296724</v>
+        <v>0.06397870134141535</v>
       </c>
       <c r="C83" t="n">
-        <v>0.02429938316345215</v>
+        <v>0.03020302454630534</v>
       </c>
       <c r="D83" t="n">
-        <v>0.007765206671856177</v>
+        <v>0.008181461505335991</v>
       </c>
       <c r="E83" t="b">
         <v>1</v>
@@ -5437,7 +5437,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -5455,40 +5455,40 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'gini', 'max_depth': np.int64(17), 'max_features': 'sqrt', 'min_samples_leaf': 3, 'min_samples_split': 10, 'n_estimators': 335}</t>
+          <t>{'bootstrap': True, 'criterion': 'gini', 'max_depth': np.int64(14), 'max_features': 'sqrt', 'min_samples_leaf': 3, 'min_samples_split': 10, 'n_estimators': 335}</t>
         </is>
       </c>
       <c r="M83" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="N83" t="n">
         <v>0.5625</v>
-      </c>
-      <c r="N83" t="n">
-        <v>0.5675</v>
       </c>
       <c r="O83" t="n">
         <v>0.59</v>
       </c>
       <c r="P83" t="n">
-        <v>0.5733333333333333</v>
+        <v>0.5724999999999999</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.01196058341200609</v>
+        <v>0.01241638702145945</v>
       </c>
       <c r="R83" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.3996121088663737</v>
+        <v>0.4426822662353516</v>
       </c>
       <c r="B84" t="n">
-        <v>0.006553308194061901</v>
+        <v>0.008582640281768417</v>
       </c>
       <c r="C84" t="n">
-        <v>0.00819555918375651</v>
+        <v>0.01020932197570801</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0001762820533484911</v>
+        <v>0.001048309402884663</v>
       </c>
       <c r="E84" t="b">
         <v>1</v>
@@ -5499,7 +5499,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -5517,40 +5517,40 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'gini', 'max_depth': np.int64(18), 'max_features': 'sqrt', 'min_samples_leaf': 13, 'min_samples_split': 18, 'n_estimators': 149}</t>
+          <t>{'bootstrap': True, 'criterion': 'gini', 'max_depth': np.int64(14), 'max_features': 'sqrt', 'min_samples_leaf': 13, 'min_samples_split': 18, 'n_estimators': 149}</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="N84" t="n">
-        <v>0.545</v>
+        <v>0.5575</v>
       </c>
       <c r="O84" t="n">
-        <v>0.58</v>
+        <v>0.5775</v>
       </c>
       <c r="P84" t="n">
-        <v>0.5616666666666666</v>
+        <v>0.5666666666666668</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.01433720877840434</v>
+        <v>0.008249579113843065</v>
       </c>
       <c r="R84" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>8.501840670903524</v>
+        <v>9.630318403244019</v>
       </c>
       <c r="B85" t="n">
-        <v>0.6991763868754455</v>
+        <v>0.6888123031008221</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0166931947072347</v>
+        <v>0.02172605196634929</v>
       </c>
       <c r="D85" t="n">
-        <v>0.004069885931781861</v>
+        <v>0.006803987136139886</v>
       </c>
       <c r="E85" t="b">
         <v>0</v>
@@ -5561,7 +5561,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="n">
@@ -5575,7 +5575,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'gini', 'max_depth': np.int64(15), 'max_features': None, 'min_samples_leaf': 12, 'min_samples_split': 10, 'n_estimators': 333}</t>
+          <t>{'bootstrap': False, 'criterion': 'gini', 'max_depth': np.int64(16), 'max_features': None, 'min_samples_leaf': 12, 'min_samples_split': 10, 'n_estimators': 333}</t>
         </is>
       </c>
       <c r="M85" t="n">
@@ -5594,21 +5594,21 @@
         <v>0.01585524799203372</v>
       </c>
       <c r="R85" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>9.897226095199585</v>
+        <v>11.08471099535624</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5165815316467487</v>
+        <v>0.4288362457664858</v>
       </c>
       <c r="C86" t="n">
-        <v>0.01464287439982096</v>
+        <v>0.02080543835957845</v>
       </c>
       <c r="D86" t="n">
-        <v>0.001944249209421326</v>
+        <v>0.00321242197359144</v>
       </c>
       <c r="E86" t="b">
         <v>0</v>
@@ -5619,7 +5619,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="n">
@@ -5633,7 +5633,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'gini', 'max_depth': np.int64(18), 'max_features': None, 'min_samples_leaf': 15, 'min_samples_split': 17, 'n_estimators': 422}</t>
+          <t>{'bootstrap': False, 'criterion': 'gini', 'max_depth': np.int64(14), 'max_features': None, 'min_samples_leaf': 15, 'min_samples_split': 17, 'n_estimators': 422}</t>
         </is>
       </c>
       <c r="M86" t="n">
@@ -5652,21 +5652,21 @@
         <v>0.02163459164291194</v>
       </c>
       <c r="R86" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1.972726345062256</v>
+        <v>2.068414211273193</v>
       </c>
       <c r="B87" t="n">
-        <v>0.06788004655500071</v>
+        <v>0.0631908785195734</v>
       </c>
       <c r="C87" t="n">
-        <v>0.008806864420572916</v>
+        <v>0.006965319315592448</v>
       </c>
       <c r="D87" t="n">
-        <v>0.00153923318206256</v>
+        <v>4.850019686100502e-05</v>
       </c>
       <c r="E87" t="b">
         <v>1</v>
@@ -5677,7 +5677,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="n">
@@ -5691,40 +5691,40 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'gini', 'max_depth': np.int64(15), 'max_features': None, 'min_samples_leaf': 4, 'min_samples_split': 17, 'n_estimators': 106}</t>
+          <t>{'bootstrap': True, 'criterion': 'gini', 'max_depth': np.int64(16), 'max_features': None, 'min_samples_leaf': 4, 'min_samples_split': 17, 'n_estimators': 106}</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>0.5775</v>
+        <v>0.58</v>
       </c>
       <c r="N87" t="n">
-        <v>0.57</v>
+        <v>0.5725</v>
       </c>
       <c r="O87" t="n">
-        <v>0.585</v>
+        <v>0.575</v>
       </c>
       <c r="P87" t="n">
-        <v>0.5775</v>
+        <v>0.5758333333333333</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.006123724356957951</v>
+        <v>0.003118047822311601</v>
       </c>
       <c r="R87" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.5789957841237386</v>
+        <v>0.8018737634023031</v>
       </c>
       <c r="B88" t="n">
-        <v>0.007641784425780587</v>
+        <v>0.0670879504516918</v>
       </c>
       <c r="C88" t="n">
-        <v>0.01522382100423177</v>
+        <v>0.02172176043192546</v>
       </c>
       <c r="D88" t="n">
-        <v>0.00314760604430441</v>
+        <v>0.003423966379269938</v>
       </c>
       <c r="E88" t="b">
         <v>1</v>
@@ -5735,7 +5735,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -5753,40 +5753,40 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'gini', 'max_depth': np.int64(6), 'max_features': 'log2', 'min_samples_leaf': 7, 'min_samples_split': 15, 'n_estimators': 272}</t>
+          <t>{'bootstrap': True, 'criterion': 'gini', 'max_depth': np.int64(18), 'max_features': 'log2', 'min_samples_leaf': 7, 'min_samples_split': 15, 'n_estimators': 272}</t>
         </is>
       </c>
       <c r="M88" t="n">
         <v>0.555</v>
       </c>
       <c r="N88" t="n">
-        <v>0.54</v>
+        <v>0.555</v>
       </c>
       <c r="O88" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5875</v>
       </c>
       <c r="P88" t="n">
-        <v>0.5516666666666667</v>
+        <v>0.5658333333333334</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.008498365855987981</v>
+        <v>0.01532064692570852</v>
       </c>
       <c r="R88" t="n">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>4.821647802988688</v>
+        <v>5.672720034917195</v>
       </c>
       <c r="B89" t="n">
-        <v>0.1898517346142609</v>
+        <v>0.4327193374204742</v>
       </c>
       <c r="C89" t="n">
-        <v>0.01208297411600749</v>
+        <v>0.0145417054494222</v>
       </c>
       <c r="D89" t="n">
-        <v>0.002245955501482141</v>
+        <v>0.00375930872048565</v>
       </c>
       <c r="E89" t="b">
         <v>0</v>
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="n">
@@ -5811,40 +5811,40 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'gini', 'max_depth': np.int64(8), 'max_features': None, 'min_samples_leaf': 11, 'min_samples_split': 12, 'n_estimators': 195}</t>
+          <t>{'bootstrap': False, 'criterion': 'gini', 'max_depth': np.int64(11), 'max_features': None, 'min_samples_leaf': 11, 'min_samples_split': 12, 'n_estimators': 195}</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>0.4975</v>
+        <v>0.5</v>
       </c>
       <c r="N89" t="n">
         <v>0.495</v>
       </c>
       <c r="O89" t="n">
-        <v>0.5475</v>
+        <v>0.5275</v>
       </c>
       <c r="P89" t="n">
-        <v>0.5133333333333333</v>
+        <v>0.5075</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.02418103021424484</v>
+        <v>0.01428869016623519</v>
       </c>
       <c r="R89" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9523970286051432</v>
+        <v>1.057873169581095</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0247955099255001</v>
+        <v>0.02973499396590757</v>
       </c>
       <c r="C90" t="n">
-        <v>0.01555991172790527</v>
+        <v>0.0176543394724528</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0005496616459682307</v>
+        <v>0.001634697931611284</v>
       </c>
       <c r="E90" t="b">
         <v>1</v>
@@ -5855,7 +5855,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -5873,40 +5873,40 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(15), 'max_features': 'log2', 'min_samples_leaf': 12, 'min_samples_split': 18, 'n_estimators': 302}</t>
+          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(16), 'max_features': 'log2', 'min_samples_leaf': 12, 'min_samples_split': 18, 'n_estimators': 302}</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>0.555</v>
+        <v>0.5475</v>
       </c>
       <c r="N90" t="n">
-        <v>0.54</v>
+        <v>0.545</v>
       </c>
       <c r="O90" t="n">
-        <v>0.57</v>
+        <v>0.5675</v>
       </c>
       <c r="P90" t="n">
-        <v>0.555</v>
+        <v>0.5533333333333333</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.01224744871391586</v>
+        <v>0.01006920497799547</v>
       </c>
       <c r="R90" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1.146578709284465</v>
+        <v>0.740039587020874</v>
       </c>
       <c r="B91" t="n">
-        <v>0.01459431549691756</v>
+        <v>0.01107537285132282</v>
       </c>
       <c r="C91" t="n">
-        <v>0.02429842948913574</v>
+        <v>0.01927661895751953</v>
       </c>
       <c r="D91" t="n">
-        <v>0.004426382242613281</v>
+        <v>0.004686943028896317</v>
       </c>
       <c r="E91" t="b">
         <v>0</v>
@@ -5917,7 +5917,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -5935,40 +5935,40 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'gini', 'max_depth': np.int64(14), 'max_features': 'log2', 'min_samples_leaf': 9, 'min_samples_split': 19, 'n_estimators': 332}</t>
+          <t>{'bootstrap': False, 'criterion': 'gini', 'max_depth': np.int64(4), 'max_features': 'log2', 'min_samples_leaf': 9, 'min_samples_split': 19, 'n_estimators': 332}</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>0.5475</v>
+        <v>0.54</v>
       </c>
       <c r="N91" t="n">
-        <v>0.555</v>
+        <v>0.545</v>
       </c>
       <c r="O91" t="n">
-        <v>0.5925</v>
+        <v>0.55</v>
       </c>
       <c r="P91" t="n">
-        <v>0.5650000000000001</v>
+        <v>0.545</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.01968501968502953</v>
+        <v>0.004082482904638634</v>
       </c>
       <c r="R91" t="n">
-        <v>47</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.193140506744385</v>
+        <v>3.652108987172445</v>
       </c>
       <c r="B92" t="n">
-        <v>0.06247354385265731</v>
+        <v>0.1083585424328289</v>
       </c>
       <c r="C92" t="n">
-        <v>0.02472980817159017</v>
+        <v>0.03085176150004069</v>
       </c>
       <c r="D92" t="n">
-        <v>0.005249533641506744</v>
+        <v>0.005133049465018868</v>
       </c>
       <c r="E92" t="b">
         <v>0</v>
@@ -5979,7 +5979,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -5997,40 +5997,40 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(6), 'max_features': 'sqrt', 'min_samples_leaf': 5, 'min_samples_split': 7, 'n_estimators': 388}</t>
+          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(18), 'max_features': 'sqrt', 'min_samples_leaf': 5, 'min_samples_split': 7, 'n_estimators': 388}</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>0.5575</v>
+        <v>0.5625</v>
       </c>
       <c r="N92" t="n">
-        <v>0.5575</v>
+        <v>0.585</v>
       </c>
       <c r="O92" t="n">
         <v>0.59</v>
       </c>
       <c r="P92" t="n">
-        <v>0.5683333333333334</v>
+        <v>0.5791666666666666</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.01532064692570852</v>
+        <v>0.01196058341200609</v>
       </c>
       <c r="R92" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1.225757122039795</v>
+        <v>1.36803150177002</v>
       </c>
       <c r="B93" t="n">
-        <v>0.009701883173709375</v>
+        <v>0.07245771270909002</v>
       </c>
       <c r="C93" t="n">
-        <v>0.02128156026204427</v>
+        <v>0.0209816296895345</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0006571314408630474</v>
+        <v>0.005567783302108622</v>
       </c>
       <c r="E93" t="b">
         <v>0</v>
@@ -6061,36 +6061,36 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>0.5575</v>
+        <v>0.5425</v>
       </c>
       <c r="N93" t="n">
-        <v>0.545</v>
+        <v>0.5475</v>
       </c>
       <c r="O93" t="n">
-        <v>0.5925</v>
+        <v>0.585</v>
       </c>
       <c r="P93" t="n">
-        <v>0.5650000000000001</v>
+        <v>0.5583333333333332</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.0201038968030247</v>
+        <v>0.01896634446123506</v>
       </c>
       <c r="R93" t="n">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.7043490409851074</v>
+        <v>0.7441230614980062</v>
       </c>
       <c r="B94" t="n">
-        <v>0.02816120423948095</v>
+        <v>0.02039707724565798</v>
       </c>
       <c r="C94" t="n">
-        <v>0.01781527201334636</v>
+        <v>0.01503777503967285</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0006709299989757071</v>
+        <v>0.002381282859052048</v>
       </c>
       <c r="E94" t="b">
         <v>1</v>
@@ -6101,7 +6101,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -6119,11 +6119,11 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(18), 'max_features': 'log2', 'min_samples_leaf': 19, 'min_samples_split': 13, 'n_estimators': 231}</t>
+          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(14), 'max_features': 'log2', 'min_samples_leaf': 19, 'min_samples_split': 13, 'n_estimators': 231}</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>0.5475</v>
+        <v>0.55</v>
       </c>
       <c r="N94" t="n">
         <v>0.545</v>
@@ -6132,10 +6132,10 @@
         <v>0.5575</v>
       </c>
       <c r="P94" t="n">
-        <v>0.5499999999999999</v>
+        <v>0.5508333333333334</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.005400617248673204</v>
+        <v>0.005137011669140794</v>
       </c>
       <c r="R94" t="n">
         <v>80</v>
@@ -6143,16 +6143,16 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.3697835604349772</v>
+        <v>0.4281674226125081</v>
       </c>
       <c r="B95" t="n">
-        <v>0.02520445209598009</v>
+        <v>0.01300955799112838</v>
       </c>
       <c r="C95" t="n">
-        <v>0.01091305414835612</v>
+        <v>0.01360487937927246</v>
       </c>
       <c r="D95" t="n">
-        <v>0.002330397927759474</v>
+        <v>0.0009213908215601505</v>
       </c>
       <c r="E95" t="b">
         <v>1</v>
@@ -6163,7 +6163,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -6181,23 +6181,23 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'gini', 'max_depth': np.int64(9), 'max_features': 'log2', 'min_samples_leaf': 19, 'min_samples_split': 8, 'n_estimators': 175}</t>
+          <t>{'bootstrap': True, 'criterion': 'gini', 'max_depth': np.int64(10), 'max_features': 'log2', 'min_samples_leaf': 19, 'min_samples_split': 8, 'n_estimators': 175}</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>0.555</v>
+        <v>0.55</v>
       </c>
       <c r="N95" t="n">
         <v>0.5475</v>
       </c>
       <c r="O95" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="P95" t="n">
-        <v>0.5541666666666667</v>
+        <v>0.5558333333333333</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.005137011669140842</v>
+        <v>0.01006920497799545</v>
       </c>
       <c r="R95" t="n">
         <v>74</v>
@@ -6205,16 +6205,16 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1.15735133488973</v>
+        <v>1.372427860895793</v>
       </c>
       <c r="B96" t="n">
-        <v>0.01720653004860694</v>
+        <v>0.0350469164093399</v>
       </c>
       <c r="C96" t="n">
-        <v>0.02929504712422689</v>
+        <v>0.04229569435119629</v>
       </c>
       <c r="D96" t="n">
-        <v>0.005862483047930556</v>
+        <v>0.01606625153141187</v>
       </c>
       <c r="E96" t="b">
         <v>1</v>
@@ -6225,7 +6225,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -6243,40 +6243,40 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'gini', 'max_depth': np.int64(9), 'max_features': 'log2', 'min_samples_leaf': 8, 'min_samples_split': 10, 'n_estimators': 472}</t>
+          <t>{'bootstrap': True, 'criterion': 'gini', 'max_depth': np.int64(16), 'max_features': 'log2', 'min_samples_leaf': 8, 'min_samples_split': 10, 'n_estimators': 472}</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="N96" t="n">
         <v>0.5475</v>
       </c>
       <c r="O96" t="n">
-        <v>0.5725</v>
+        <v>0.59</v>
       </c>
       <c r="P96" t="n">
-        <v>0.5599999999999999</v>
+        <v>0.5691666666666667</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.01020620726159658</v>
+        <v>0.01736055554666638</v>
       </c>
       <c r="R96" t="n">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>5.2070259253184</v>
+        <v>5.720491409301758</v>
       </c>
       <c r="B97" t="n">
-        <v>0.1911292463533069</v>
+        <v>0.1164676917909347</v>
       </c>
       <c r="C97" t="n">
-        <v>0.01547837257385254</v>
+        <v>0.01650818188985189</v>
       </c>
       <c r="D97" t="n">
-        <v>4.750975028073225e-05</v>
+        <v>0.0002049697649795411</v>
       </c>
       <c r="E97" t="b">
         <v>1</v>
@@ -6287,7 +6287,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="n">
@@ -6301,40 +6301,40 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'gini', 'max_depth': np.int64(15), 'max_features': None, 'min_samples_leaf': 17, 'min_samples_split': 2, 'n_estimators': 471}</t>
+          <t>{'bootstrap': True, 'criterion': 'gini', 'max_depth': np.int64(16), 'max_features': None, 'min_samples_leaf': 17, 'min_samples_split': 2, 'n_estimators': 471}</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>0.575</v>
+        <v>0.58</v>
       </c>
       <c r="N97" t="n">
-        <v>0.585</v>
+        <v>0.5975</v>
       </c>
       <c r="O97" t="n">
         <v>0.6</v>
       </c>
       <c r="P97" t="n">
-        <v>0.5866666666666666</v>
+        <v>0.5924999999999999</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.01027402333828164</v>
+        <v>0.008897565210026111</v>
       </c>
       <c r="R97" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.8040625254313151</v>
+        <v>0.9705057144165039</v>
       </c>
       <c r="B98" t="n">
-        <v>0.04130420258357585</v>
+        <v>0.07040359632131947</v>
       </c>
       <c r="C98" t="n">
-        <v>0.01202694574991862</v>
+        <v>0.01292673746744792</v>
       </c>
       <c r="D98" t="n">
-        <v>0.002503922727271072</v>
+        <v>0.001058186430063686</v>
       </c>
       <c r="E98" t="b">
         <v>1</v>
@@ -6345,7 +6345,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -6363,40 +6363,40 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(9), 'max_features': 'sqrt', 'min_samples_leaf': 13, 'min_samples_split': 16, 'n_estimators': 198}</t>
+          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(10), 'max_features': 'sqrt', 'min_samples_leaf': 13, 'min_samples_split': 16, 'n_estimators': 198}</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>0.55</v>
+        <v>0.555</v>
       </c>
       <c r="N98" t="n">
-        <v>0.5475</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O98" t="n">
-        <v>0.5775</v>
+        <v>0.575</v>
       </c>
       <c r="P98" t="n">
-        <v>0.5583333333333335</v>
+        <v>0.5633333333333334</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.01359125535858341</v>
+        <v>0.008498365855987932</v>
       </c>
       <c r="R98" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>7.282848676045735</v>
+        <v>9.838809967041016</v>
       </c>
       <c r="B99" t="n">
-        <v>0.2662321275324184</v>
+        <v>0.1585712567246662</v>
       </c>
       <c r="C99" t="n">
-        <v>0.007677952448527019</v>
+        <v>0.01046991348266602</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0003568314762543969</v>
+        <v>0.0006719000199320381</v>
       </c>
       <c r="E99" t="b">
         <v>0</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="n">
@@ -6421,40 +6421,40 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(6), 'max_features': None, 'min_samples_leaf': 5, 'min_samples_split': 5, 'n_estimators': 276}</t>
+          <t>{'bootstrap': False, 'criterion': 'entropy', 'max_depth': np.int64(18), 'max_features': None, 'min_samples_leaf': 5, 'min_samples_split': 5, 'n_estimators': 276}</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>0.495</v>
+        <v>0.485</v>
       </c>
       <c r="N99" t="n">
+        <v>0.4625</v>
+      </c>
+      <c r="O99" t="n">
         <v>0.4925</v>
       </c>
-      <c r="O99" t="n">
-        <v>0.5525</v>
-      </c>
       <c r="P99" t="n">
-        <v>0.5133333333333333</v>
+        <v>0.48</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.02771381524719315</v>
+        <v>0.01274754878398195</v>
       </c>
       <c r="R99" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1.04748272895813</v>
+        <v>1.254890203475952</v>
       </c>
       <c r="B100" t="n">
-        <v>0.05106290183902175</v>
+        <v>0.02021964724992142</v>
       </c>
       <c r="C100" t="n">
-        <v>0.01980113983154297</v>
+        <v>0.01945257186889648</v>
       </c>
       <c r="D100" t="n">
-        <v>0.004869663897134944</v>
+        <v>0.005960557148530896</v>
       </c>
       <c r="E100" t="b">
         <v>1</v>
@@ -6465,7 +6465,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -6483,40 +6483,40 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(15), 'max_features': 'log2', 'min_samples_leaf': 15, 'min_samples_split': 10, 'n_estimators': 354}</t>
+          <t>{'bootstrap': True, 'criterion': 'entropy', 'max_depth': np.int64(16), 'max_features': 'log2', 'min_samples_leaf': 15, 'min_samples_split': 10, 'n_estimators': 354}</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>0.5475</v>
+        <v>0.555</v>
       </c>
       <c r="N100" t="n">
-        <v>0.5475</v>
+        <v>0.545</v>
       </c>
       <c r="O100" t="n">
-        <v>0.5675</v>
+        <v>0.57</v>
       </c>
       <c r="P100" t="n">
-        <v>0.5541666666666667</v>
+        <v>0.5566666666666666</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.009428090415820642</v>
+        <v>0.01027402333828159</v>
       </c>
       <c r="R100" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2.226217667261759</v>
+        <v>2.466895341873169</v>
       </c>
       <c r="B101" t="n">
-        <v>0.06180551287494968</v>
+        <v>0.04397895446496716</v>
       </c>
       <c r="C101" t="n">
-        <v>0.02044900258382161</v>
+        <v>0.02231152852376302</v>
       </c>
       <c r="D101" t="n">
-        <v>0.001402343984103806</v>
+        <v>0.001165855480685576</v>
       </c>
       <c r="E101" t="b">
         <v>0</v>
@@ -6547,22 +6547,22 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="N101" t="n">
-        <v>0.5675</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="O101" t="n">
-        <v>0.59</v>
+        <v>0.595</v>
       </c>
       <c r="P101" t="n">
-        <v>0.5724999999999999</v>
+        <v>0.575</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.01274754878398193</v>
+        <v>0.01414213562373096</v>
       </c>
       <c r="R101" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
